--- a/tests/2022 - 07 - Attendance Details.xlsx
+++ b/tests/2022 - 07 - Attendance Details.xlsx
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="8">
-  <si>
-    <t>Nur Ardhiansyah</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -42,10 +39,13 @@
     <t>Person ID</t>
   </si>
   <si>
-    <t>Approver</t>
+    <t>Nur A</t>
   </si>
   <si>
-    <t>User</t>
+    <t>Approve 01</t>
+  </si>
+  <si>
+    <t>User 01</t>
   </si>
 </sst>
 </file>
@@ -854,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E184"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A184" sqref="A184"/>
+    <sheetView tabSelected="1" topLeftCell="A282" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J297" sqref="J297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,19 +871,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -891,13 +891,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>44774</v>
+        <v>44713</v>
       </c>
       <c r="D2" s="2">
-        <v>0.29236111111111113</v>
+        <v>0.3125</v>
       </c>
       <c r="E2" s="2">
         <v>0.7090277777777777</v>
@@ -908,16 +908,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>44775</v>
+        <v>44714</v>
       </c>
       <c r="D3" s="2">
-        <v>0.29305555555555557</v>
+        <v>0.31597222222222221</v>
       </c>
       <c r="E3" s="2">
-        <v>0.70972222222222225</v>
+        <v>0.71111111111111114</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -925,16 +925,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>44776</v>
+        <v>44715</v>
       </c>
       <c r="D4" s="2">
-        <v>0.29375000000000001</v>
+        <v>0.31944444444444398</v>
       </c>
       <c r="E4" s="2">
-        <v>0.71041666666666703</v>
+        <v>0.71319444444444502</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -942,16 +942,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>44777</v>
+        <v>44716</v>
       </c>
       <c r="D5" s="2">
-        <v>0.29444444444444401</v>
+        <v>0.32291666666666702</v>
       </c>
       <c r="E5" s="2">
-        <v>0.71111111111111103</v>
+        <v>0.71527777777777801</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -959,16 +959,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>44778</v>
+        <v>44717</v>
       </c>
       <c r="D6" s="2">
-        <v>0.29513888888888901</v>
+        <v>0.32638888888888901</v>
       </c>
       <c r="E6" s="2">
-        <v>0.71180555555555602</v>
+        <v>0.71736111111111101</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -976,16 +976,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>44779</v>
+        <v>44718</v>
       </c>
       <c r="D7" s="2">
-        <v>0.295833333333333</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="E7" s="2">
-        <v>0.71250000000000002</v>
+        <v>0.719444444444445</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -993,16 +993,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>44780</v>
+        <v>44719</v>
       </c>
       <c r="D8" s="2">
-        <v>0.296527777777778</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E8" s="2">
-        <v>0.71319444444444502</v>
+        <v>0.72152777777777799</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1010,16 +1010,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>44781</v>
+        <v>44720</v>
       </c>
       <c r="D9" s="2">
-        <v>0.297222222222222</v>
+        <v>0.33680555555555602</v>
       </c>
       <c r="E9" s="2">
-        <v>0.71388888888889002</v>
+        <v>0.72361111111111198</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1027,16 +1027,16 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>44782</v>
+        <v>44721</v>
       </c>
       <c r="D10" s="2">
-        <v>0.297916666666667</v>
+        <v>0.34027777777777801</v>
       </c>
       <c r="E10" s="2">
-        <v>0.71458333333333401</v>
+        <v>0.72569444444444497</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1044,16 +1044,16 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>44783</v>
+        <v>44722</v>
       </c>
       <c r="D11" s="2">
-        <v>0.29861111111111099</v>
+        <v>0.3125</v>
       </c>
       <c r="E11" s="2">
-        <v>0.71527777777777901</v>
+        <v>0.72777777777777897</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1061,16 +1061,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
-        <v>44784</v>
+        <v>44723</v>
       </c>
       <c r="D12" s="2">
-        <v>0.29930555555555499</v>
+        <v>0.31597222222222221</v>
       </c>
       <c r="E12" s="2">
-        <v>0.71597222222222401</v>
+        <v>0.72986111111111196</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1078,16 +1078,16 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
-        <v>44785</v>
+        <v>44724</v>
       </c>
       <c r="D13" s="2">
-        <v>0.29999999999999899</v>
+        <v>0.31944444444444398</v>
       </c>
       <c r="E13" s="2">
-        <v>0.71666666666666901</v>
+        <v>0.73194444444444595</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
-        <v>44786</v>
+        <v>44725</v>
       </c>
       <c r="D14" s="2">
-        <v>0.30069444444444299</v>
+        <v>0.32291666666666702</v>
       </c>
       <c r="E14" s="2">
-        <v>0.717361111111114</v>
+        <v>0.73402777777777894</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1112,16 +1112,16 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1">
-        <v>44787</v>
+        <v>44726</v>
       </c>
       <c r="D15" s="2">
-        <v>0.30138888888888699</v>
+        <v>0.32638888888888901</v>
       </c>
       <c r="E15" s="2">
-        <v>0.718055555555559</v>
+        <v>0.73611111111111205</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1129,16 +1129,16 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1">
-        <v>44788</v>
+        <v>44727</v>
       </c>
       <c r="D16" s="2">
-        <v>0.30208333333333098</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="E16" s="2">
-        <v>0.718750000000004</v>
+        <v>0.73819444444444604</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1146,16 +1146,16 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1">
-        <v>44789</v>
+        <v>44728</v>
       </c>
       <c r="D17" s="2">
-        <v>0.30277777777777498</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E17" s="2">
-        <v>0.71944444444444899</v>
+        <v>0.74027777777777903</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1">
-        <v>44790</v>
+        <v>44729</v>
       </c>
       <c r="D18" s="2">
-        <v>0.30347222222221898</v>
+        <v>0.33680555555555602</v>
       </c>
       <c r="E18" s="2">
-        <v>0.72013888888889399</v>
+        <v>0.74236111111111303</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1180,16 +1180,16 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1">
-        <v>44791</v>
+        <v>44730</v>
       </c>
       <c r="D19" s="2">
-        <v>0.30416666666666298</v>
+        <v>0.34027777777777801</v>
       </c>
       <c r="E19" s="2">
-        <v>0.72083333333333899</v>
+        <v>0.74444444444444602</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1197,16 +1197,16 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1">
-        <v>44792</v>
+        <v>44731</v>
       </c>
       <c r="D20" s="2">
-        <v>0.30486111111110697</v>
+        <v>0.3125</v>
       </c>
       <c r="E20" s="2">
-        <v>0.72152777777778399</v>
+        <v>0.74652777777778001</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1214,16 +1214,16 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1">
-        <v>44793</v>
+        <v>44732</v>
       </c>
       <c r="D21" s="2">
-        <v>0.34722222222222227</v>
+        <v>0.31597222222222221</v>
       </c>
       <c r="E21" s="2">
-        <v>0.84722222222222221</v>
+        <v>0.748611111111113</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1231,16 +1231,16 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1">
-        <v>44794</v>
+        <v>44733</v>
       </c>
       <c r="D22" s="2">
-        <v>0.30624999999999503</v>
+        <v>0.31944444444444398</v>
       </c>
       <c r="E22" s="2">
-        <v>0.72291666666667398</v>
+        <v>0.750694444444446</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1248,16 +1248,16 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1">
-        <v>44795</v>
+        <v>44734</v>
       </c>
       <c r="D23" s="2">
-        <v>0.30694444444443902</v>
+        <v>0.32291666666666702</v>
       </c>
       <c r="E23" s="2">
-        <v>0.72361111111111898</v>
+        <v>0.75277777777777999</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1265,16 +1265,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1">
-        <v>44796</v>
+        <v>44735</v>
       </c>
       <c r="D24" s="2">
-        <v>0.30763888888888302</v>
+        <v>0.32638888888888901</v>
       </c>
       <c r="E24" s="2">
-        <v>0.72430555555556397</v>
+        <v>0.75486111111111298</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1282,16 +1282,16 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1">
-        <v>44797</v>
+        <v>44736</v>
       </c>
       <c r="D25" s="2">
-        <v>0.30833333333332702</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="E25" s="2">
-        <v>0.72500000000000897</v>
+        <v>0.75694444444444697</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1299,16 +1299,16 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1">
-        <v>44798</v>
+        <v>44737</v>
       </c>
       <c r="D26" s="2">
-        <v>0.30902777777777102</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E26" s="2">
-        <v>0.72569444444445397</v>
+        <v>0.75902777777777997</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1316,16 +1316,16 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C27" s="1">
-        <v>44799</v>
+        <v>44738</v>
       </c>
       <c r="D27" s="2">
-        <v>0.30972222222221502</v>
+        <v>0.33680555555555602</v>
       </c>
       <c r="E27" s="2">
-        <v>0.72638888888889896</v>
+        <v>0.7090277777777777</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1333,16 +1333,16 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1">
-        <v>44800</v>
+        <v>44739</v>
       </c>
       <c r="D28" s="2">
-        <v>0.31041666666665901</v>
+        <v>0.34027777777777801</v>
       </c>
       <c r="E28" s="2">
-        <v>0.72708333333334396</v>
+        <v>0.71111111111111114</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1350,16 +1350,16 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C29" s="1">
-        <v>44801</v>
+        <v>44740</v>
       </c>
       <c r="D29" s="2">
-        <v>0.31111111111110301</v>
+        <v>0.3125</v>
       </c>
       <c r="E29" s="2">
-        <v>0.72777777777778896</v>
+        <v>0.71319444444444502</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1367,16 +1367,16 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1">
-        <v>44802</v>
+        <v>44741</v>
       </c>
       <c r="D30" s="2">
-        <v>0.31180555555554701</v>
+        <v>0.31597222222222221</v>
       </c>
       <c r="E30" s="2">
-        <v>0.72847222222223396</v>
+        <v>0.71527777777777801</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1384,16 +1384,16 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1">
-        <v>44803</v>
+        <v>44742</v>
       </c>
       <c r="D31" s="2">
-        <v>0.35416666666666669</v>
+        <v>0.31944444444444398</v>
       </c>
       <c r="E31" s="2">
-        <v>0.8125</v>
+        <v>0.71736111111111101</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1401,16 +1401,16 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1">
-        <v>44804</v>
+        <v>44743</v>
       </c>
       <c r="D32" s="2">
-        <v>0.31319444444443501</v>
+        <v>0.32291666666666702</v>
       </c>
       <c r="E32" s="2">
-        <v>0.72986111111112395</v>
+        <v>0.719444444444445</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1418,16 +1418,16 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1">
-        <v>44805</v>
+        <v>44744</v>
       </c>
       <c r="D33" s="2">
-        <v>0.313888888888879</v>
+        <v>0.32638888888888901</v>
       </c>
       <c r="E33" s="2">
-        <v>0.73055555555556895</v>
+        <v>0.72152777777777799</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1435,16 +1435,16 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1">
-        <v>44806</v>
+        <v>44745</v>
       </c>
       <c r="D34" s="2">
-        <v>0.314583333333323</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="E34" s="2">
-        <v>0.73125000000001406</v>
+        <v>0.72361111111111198</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1452,16 +1452,16 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1">
-        <v>44807</v>
+        <v>44746</v>
       </c>
       <c r="D35" s="2">
-        <v>0.315277777777767</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E35" s="2">
-        <v>0.73194444444445905</v>
+        <v>0.72569444444444497</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1469,16 +1469,16 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C36" s="1">
-        <v>44808</v>
+        <v>44747</v>
       </c>
       <c r="D36" s="2">
-        <v>0.315972222222211</v>
+        <v>0.33680555555555602</v>
       </c>
       <c r="E36" s="2">
-        <v>0.73263888888890405</v>
+        <v>0.72777777777777897</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1486,16 +1486,16 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C37" s="1">
-        <v>44809</v>
+        <v>44748</v>
       </c>
       <c r="D37" s="2">
-        <v>0.31666666666665499</v>
+        <v>0.34027777777777801</v>
       </c>
       <c r="E37" s="2">
-        <v>0.73333333333334905</v>
+        <v>0.72986111111111196</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1503,16 +1503,16 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1">
-        <v>44810</v>
+        <v>44749</v>
       </c>
       <c r="D38" s="2">
-        <v>0.31736111111109899</v>
+        <v>0.3125</v>
       </c>
       <c r="E38" s="2">
-        <v>0.73402777777779404</v>
+        <v>0.73194444444444595</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1520,16 +1520,16 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C39" s="1">
-        <v>44811</v>
+        <v>44750</v>
       </c>
       <c r="D39" s="2">
-        <v>0.31805555555554299</v>
+        <v>0.31597222222222221</v>
       </c>
       <c r="E39" s="2">
-        <v>0.73472222222223904</v>
+        <v>0.73402777777777894</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1537,16 +1537,16 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C40" s="1">
-        <v>44812</v>
+        <v>44751</v>
       </c>
       <c r="D40" s="2">
-        <v>0.31874999999998699</v>
+        <v>0.31944444444444398</v>
       </c>
       <c r="E40" s="2">
-        <v>0.73541666666668404</v>
+        <v>0.73611111111111205</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1554,16 +1554,16 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C41" s="1">
-        <v>44813</v>
+        <v>44752</v>
       </c>
       <c r="D41" s="2">
-        <v>0.31944444444443099</v>
+        <v>0.32291666666666702</v>
       </c>
       <c r="E41" s="2">
-        <v>0.73611111111112904</v>
+        <v>0.73819444444444604</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1571,16 +1571,16 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C42" s="1">
-        <v>44814</v>
+        <v>44753</v>
       </c>
       <c r="D42" s="2">
-        <v>0.32013888888887498</v>
+        <v>0.32638888888888901</v>
       </c>
       <c r="E42" s="2">
-        <v>0.73680555555557403</v>
+        <v>0.74027777777777903</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1588,16 +1588,16 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C43" s="1">
-        <v>44815</v>
+        <v>44754</v>
       </c>
       <c r="D43" s="2">
-        <v>0.32083333333331898</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="E43" s="2">
-        <v>0.73750000000001903</v>
+        <v>0.74236111111111303</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1605,16 +1605,16 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C44" s="1">
-        <v>44816</v>
+        <v>44755</v>
       </c>
       <c r="D44" s="2">
-        <v>0.32152777777776298</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E44" s="2">
-        <v>0.73819444444446403</v>
+        <v>0.74444444444444602</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1622,16 +1622,16 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C45" s="1">
-        <v>44817</v>
+        <v>44756</v>
       </c>
       <c r="D45" s="2">
-        <v>0.32222222222220698</v>
+        <v>0.33680555555555602</v>
       </c>
       <c r="E45" s="2">
-        <v>0.73888888888890902</v>
+        <v>0.74652777777778001</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1639,16 +1639,16 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C46" s="1">
-        <v>44818</v>
+        <v>44757</v>
       </c>
       <c r="D46" s="2">
-        <v>0.32291666666665098</v>
+        <v>0.34027777777777801</v>
       </c>
       <c r="E46" s="2">
-        <v>0.73958333333335402</v>
+        <v>0.748611111111113</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1">
-        <v>44819</v>
+        <v>44758</v>
       </c>
       <c r="D47" s="2">
-        <v>0.32361111111109497</v>
+        <v>0.3125</v>
       </c>
       <c r="E47" s="2">
-        <v>0.74027777777779902</v>
+        <v>0.750694444444446</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1673,16 +1673,16 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C48" s="1">
-        <v>44820</v>
+        <v>44759</v>
       </c>
       <c r="D48" s="2">
-        <v>0.32430555555553903</v>
+        <v>0.31597222222222221</v>
       </c>
       <c r="E48" s="2">
-        <v>0.74097222222224401</v>
+        <v>0.75277777777777999</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1690,16 +1690,16 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C49" s="1">
-        <v>44821</v>
+        <v>44760</v>
       </c>
       <c r="D49" s="2">
-        <v>0.32499999999998302</v>
+        <v>0.31944444444444398</v>
       </c>
       <c r="E49" s="2">
-        <v>0.74166666666668901</v>
+        <v>0.75486111111111298</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1707,16 +1707,16 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C50" s="1">
-        <v>44822</v>
+        <v>44761</v>
       </c>
       <c r="D50" s="2">
-        <v>0.32569444444442702</v>
+        <v>0.32291666666666702</v>
       </c>
       <c r="E50" s="2">
-        <v>0.74236111111113401</v>
+        <v>0.75694444444444697</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1724,16 +1724,16 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C51" s="1">
-        <v>44823</v>
+        <v>44762</v>
       </c>
       <c r="D51" s="2">
-        <v>0.32638888888887102</v>
+        <v>0.32638888888888901</v>
       </c>
       <c r="E51" s="2">
-        <v>0.74305555555557901</v>
+        <v>0.75902777777777997</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1741,16 +1741,16 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C52" s="1">
-        <v>44824</v>
+        <v>44763</v>
       </c>
       <c r="D52" s="2">
-        <v>0.32708333333331502</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="E52" s="2">
-        <v>0.743750000000024</v>
+        <v>0.7090277777777777</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1758,16 +1758,16 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C53" s="1">
-        <v>44825</v>
+        <v>44764</v>
       </c>
       <c r="D53" s="2">
-        <v>0.32777777777775902</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E53" s="2">
-        <v>0.744444444444469</v>
+        <v>0.71111111111111114</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1775,16 +1775,16 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C54" s="1">
-        <v>44826</v>
+        <v>44765</v>
       </c>
       <c r="D54" s="2">
-        <v>0.32847222222220301</v>
+        <v>0.33680555555555602</v>
       </c>
       <c r="E54" s="2">
-        <v>0.745138888888914</v>
+        <v>0.71319444444444502</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1792,16 +1792,16 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C55" s="1">
-        <v>44827</v>
+        <v>44766</v>
       </c>
       <c r="D55" s="2">
-        <v>0.32916666666664701</v>
+        <v>0.34027777777777801</v>
       </c>
       <c r="E55" s="2">
-        <v>0.74583333333335899</v>
+        <v>0.71527777777777801</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1809,16 +1809,16 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C56" s="1">
-        <v>44828</v>
+        <v>44767</v>
       </c>
       <c r="D56" s="2">
-        <v>0.32986111111109101</v>
+        <v>0.3125</v>
       </c>
       <c r="E56" s="2">
-        <v>0.74652777777780399</v>
+        <v>0.71736111111111101</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1826,16 +1826,16 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C57" s="1">
-        <v>44829</v>
+        <v>44768</v>
       </c>
       <c r="D57" s="2">
-        <v>0.33055555555553501</v>
+        <v>0.31597222222222221</v>
       </c>
       <c r="E57" s="2">
-        <v>0.74722222222224899</v>
+        <v>0.719444444444445</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1843,16 +1843,16 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C58" s="1">
-        <v>44830</v>
+        <v>44769</v>
       </c>
       <c r="D58" s="2">
-        <v>0.33124999999997901</v>
+        <v>0.31944444444444398</v>
       </c>
       <c r="E58" s="2">
-        <v>0.74791666666669399</v>
+        <v>0.72152777777777799</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1860,16 +1860,16 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C59" s="1">
-        <v>44831</v>
+        <v>44770</v>
       </c>
       <c r="D59" s="2">
-        <v>0.331944444444423</v>
+        <v>0.32291666666666702</v>
       </c>
       <c r="E59" s="2">
-        <v>0.74861111111113898</v>
+        <v>0.72361111111111198</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1877,16 +1877,16 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C60" s="1">
-        <v>44832</v>
+        <v>44771</v>
       </c>
       <c r="D60" s="2">
-        <v>0.332638888888867</v>
+        <v>0.32638888888888901</v>
       </c>
       <c r="E60" s="2">
-        <v>0.74930555555558398</v>
+        <v>0.72569444444444497</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1894,16 +1894,16 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C61" s="1">
-        <v>44833</v>
+        <v>44772</v>
       </c>
       <c r="D61" s="2">
-        <v>0.333333333333311</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="E61" s="2">
-        <v>0.75000000000002898</v>
+        <v>0.72777777777777897</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1911,679 +1911,679 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C62" s="1">
-        <v>44834</v>
+        <v>44773</v>
       </c>
       <c r="D62" s="2">
-        <v>0.334027777777755</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E62" s="2">
-        <v>0.75069444444447397</v>
+        <v>0.72986111111111196</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63" s="1">
         <v>44774</v>
       </c>
       <c r="D63" s="2">
-        <v>0.29236111111111113</v>
+        <v>0.33680555555555602</v>
       </c>
       <c r="E63" s="2">
-        <v>0.7090277777777777</v>
+        <v>0.73194444444444595</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" s="1">
         <v>44775</v>
       </c>
       <c r="D64" s="2">
-        <v>0.29305555555555557</v>
+        <v>0.34027777777777801</v>
       </c>
       <c r="E64" s="2">
-        <v>0.70972222222222225</v>
+        <v>0.73402777777777894</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" s="1">
         <v>44776</v>
       </c>
       <c r="D65" s="2">
-        <v>0.29375000000000001</v>
+        <v>0.3125</v>
       </c>
       <c r="E65" s="2">
-        <v>0.71041666666666703</v>
+        <v>0.73611111111111205</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" s="1">
         <v>44777</v>
       </c>
       <c r="D66" s="2">
-        <v>0.29444444444444401</v>
+        <v>0.31597222222222221</v>
       </c>
       <c r="E66" s="2">
-        <v>0.71111111111111103</v>
+        <v>0.73819444444444604</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" s="1">
         <v>44778</v>
       </c>
       <c r="D67" s="2">
-        <v>0.29513888888888901</v>
+        <v>0.31944444444444398</v>
       </c>
       <c r="E67" s="2">
-        <v>0.71180555555555602</v>
+        <v>0.74027777777777903</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C68" s="1">
         <v>44779</v>
       </c>
       <c r="D68" s="2">
-        <v>0.295833333333333</v>
+        <v>0.32291666666666702</v>
       </c>
       <c r="E68" s="2">
-        <v>0.71250000000000002</v>
+        <v>0.74236111111111303</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" s="1">
         <v>44780</v>
       </c>
       <c r="D69" s="2">
-        <v>0.296527777777778</v>
+        <v>0.32638888888888901</v>
       </c>
       <c r="E69" s="2">
-        <v>0.71319444444444502</v>
+        <v>0.74444444444444602</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" s="1">
         <v>44781</v>
       </c>
       <c r="D70" s="2">
-        <v>0.297222222222222</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="E70" s="2">
-        <v>0.71388888888889002</v>
+        <v>0.74652777777778001</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" s="1">
         <v>44782</v>
       </c>
       <c r="D71" s="2">
-        <v>0.297916666666667</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E71" s="2">
-        <v>0.71458333333333401</v>
+        <v>0.748611111111113</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" s="1">
         <v>44783</v>
       </c>
       <c r="D72" s="2">
-        <v>0.29861111111111099</v>
+        <v>0.33680555555555602</v>
       </c>
       <c r="E72" s="2">
-        <v>0.71527777777777901</v>
+        <v>0.750694444444446</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" s="1">
         <v>44784</v>
       </c>
       <c r="D73" s="2">
-        <v>0.29930555555555499</v>
+        <v>0.34027777777777801</v>
       </c>
       <c r="E73" s="2">
-        <v>0.71597222222222401</v>
+        <v>0.75277777777777999</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" s="1">
         <v>44785</v>
       </c>
       <c r="D74" s="2">
-        <v>0.29999999999999899</v>
+        <v>0.3125</v>
       </c>
       <c r="E74" s="2">
-        <v>0.71666666666666901</v>
+        <v>0.75486111111111298</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" s="1">
         <v>44786</v>
       </c>
       <c r="D75" s="2">
-        <v>0.30069444444444299</v>
+        <v>0.31597222222222221</v>
       </c>
       <c r="E75" s="2">
-        <v>0.717361111111114</v>
+        <v>0.75694444444444697</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C76" s="1">
         <v>44787</v>
       </c>
       <c r="D76" s="2">
-        <v>0.30138888888888699</v>
+        <v>0.31944444444444398</v>
       </c>
       <c r="E76" s="2">
-        <v>0.718055555555559</v>
+        <v>0.75902777777777997</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77" s="1">
         <v>44788</v>
       </c>
       <c r="D77" s="2">
-        <v>0.30208333333333098</v>
+        <v>0.32291666666666702</v>
       </c>
       <c r="E77" s="2">
-        <v>0.718750000000004</v>
+        <v>0.7090277777777777</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" s="1">
         <v>44789</v>
       </c>
       <c r="D78" s="2">
-        <v>0.30277777777777498</v>
+        <v>0.32638888888888901</v>
       </c>
       <c r="E78" s="2">
-        <v>0.71944444444444899</v>
+        <v>0.71111111111111114</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" s="1">
         <v>44790</v>
       </c>
       <c r="D79" s="2">
-        <v>0.30347222222221898</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="E79" s="2">
-        <v>0.72013888888889399</v>
+        <v>0.71319444444444502</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C80" s="1">
         <v>44791</v>
       </c>
       <c r="D80" s="2">
-        <v>0.30416666666666298</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E80" s="2">
-        <v>0.72083333333333899</v>
+        <v>0.71527777777777801</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81" s="1">
         <v>44792</v>
       </c>
       <c r="D81" s="2">
-        <v>0.30486111111110697</v>
+        <v>0.33680555555555602</v>
       </c>
       <c r="E81" s="2">
-        <v>0.72152777777778399</v>
+        <v>0.71736111111111101</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" s="1">
         <v>44793</v>
       </c>
       <c r="D82" s="2">
-        <v>0.34722222222222227</v>
+        <v>0.34027777777777801</v>
       </c>
       <c r="E82" s="2">
-        <v>0.84722222222222221</v>
+        <v>0.719444444444445</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" s="1">
         <v>44794</v>
       </c>
       <c r="D83" s="2">
-        <v>0.30624999999999503</v>
+        <v>0.3125</v>
       </c>
       <c r="E83" s="2">
-        <v>0.72291666666667398</v>
+        <v>0.72152777777777799</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84" s="1">
         <v>44795</v>
       </c>
       <c r="D84" s="2">
-        <v>0.30694444444443902</v>
+        <v>0.31597222222222221</v>
       </c>
       <c r="E84" s="2">
-        <v>0.72361111111111898</v>
+        <v>0.72361111111111198</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C85" s="1">
         <v>44796</v>
       </c>
       <c r="D85" s="2">
-        <v>0.30763888888888302</v>
+        <v>0.31944444444444398</v>
       </c>
       <c r="E85" s="2">
-        <v>0.72430555555556397</v>
+        <v>0.72569444444444497</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C86" s="1">
         <v>44797</v>
       </c>
       <c r="D86" s="2">
-        <v>0.30833333333332702</v>
+        <v>0.32291666666666702</v>
       </c>
       <c r="E86" s="2">
-        <v>0.72500000000000897</v>
+        <v>0.72777777777777897</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" s="1">
         <v>44798</v>
       </c>
       <c r="D87" s="2">
-        <v>0.30902777777777102</v>
+        <v>0.32638888888888901</v>
       </c>
       <c r="E87" s="2">
-        <v>0.72569444444445397</v>
+        <v>0.72986111111111196</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" s="1">
         <v>44799</v>
       </c>
       <c r="D88" s="2">
-        <v>0.30972222222221502</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="E88" s="2">
-        <v>0.72638888888889896</v>
+        <v>0.73194444444444595</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C89" s="1">
         <v>44800</v>
       </c>
       <c r="D89" s="2">
-        <v>0.31041666666665901</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E89" s="2">
-        <v>0.72708333333334396</v>
+        <v>0.73402777777777894</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" s="1">
         <v>44801</v>
       </c>
       <c r="D90" s="2">
-        <v>0.31111111111110301</v>
+        <v>0.33680555555555602</v>
       </c>
       <c r="E90" s="2">
-        <v>0.72777777777778896</v>
+        <v>0.73611111111111205</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" s="1">
         <v>44802</v>
       </c>
       <c r="D91" s="2">
-        <v>0.31180555555554701</v>
+        <v>0.34027777777777801</v>
       </c>
       <c r="E91" s="2">
-        <v>0.72847222222223396</v>
+        <v>0.73819444444444604</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" s="1">
         <v>44803</v>
       </c>
       <c r="D92" s="2">
-        <v>0.35416666666666669</v>
+        <v>0.3125</v>
       </c>
       <c r="E92" s="2">
-        <v>0.8125</v>
+        <v>0.74027777777777903</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93" s="1">
         <v>44804</v>
       </c>
       <c r="D93" s="2">
-        <v>0.31319444444443501</v>
+        <v>0.31597222222222221</v>
       </c>
       <c r="E93" s="2">
-        <v>0.72986111111112395</v>
+        <v>0.74236111111111303</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C94" s="1">
         <v>44805</v>
       </c>
       <c r="D94" s="2">
-        <v>0.313888888888879</v>
+        <v>0.31944444444444398</v>
       </c>
       <c r="E94" s="2">
-        <v>0.73055555555556895</v>
+        <v>0.74444444444444602</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95" s="1">
         <v>44806</v>
       </c>
       <c r="D95" s="2">
-        <v>0.314583333333323</v>
+        <v>0.32291666666666702</v>
       </c>
       <c r="E95" s="2">
-        <v>0.73125000000001406</v>
+        <v>0.74652777777778001</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C96" s="1">
         <v>44807</v>
       </c>
       <c r="D96" s="2">
-        <v>0.315277777777767</v>
+        <v>0.32638888888888901</v>
       </c>
       <c r="E96" s="2">
-        <v>0.73194444444445905</v>
+        <v>0.748611111111113</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" s="1">
         <v>44808</v>
       </c>
       <c r="D97" s="2">
-        <v>0.315972222222211</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="E97" s="2">
-        <v>0.73263888888890405</v>
+        <v>0.750694444444446</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" s="1">
         <v>44809</v>
       </c>
       <c r="D98" s="2">
-        <v>0.31666666666665499</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E98" s="2">
-        <v>0.73333333333334905</v>
+        <v>0.75277777777777999</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" s="1">
         <v>44810</v>
       </c>
       <c r="D99" s="2">
-        <v>0.31736111111109899</v>
+        <v>0.33680555555555602</v>
       </c>
       <c r="E99" s="2">
-        <v>0.73402777777779404</v>
+        <v>0.75486111111111298</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C100" s="1">
         <v>44811</v>
       </c>
       <c r="D100" s="2">
-        <v>0.31805555555554299</v>
+        <v>0.34027777777777801</v>
       </c>
       <c r="E100" s="2">
-        <v>0.73472222222223904</v>
+        <v>0.75694444444444697</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" s="1">
         <v>44812</v>
       </c>
       <c r="D101" s="2">
-        <v>0.31874999999998699</v>
+        <v>0.3125</v>
       </c>
       <c r="E101" s="2">
-        <v>0.73541666666668404</v>
+        <v>0.75902777777777997</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2594,13 +2594,13 @@
         <v>6</v>
       </c>
       <c r="C102" s="1">
-        <v>44813</v>
+        <v>44713</v>
       </c>
       <c r="D102" s="2">
-        <v>0.31944444444443099</v>
+        <v>0.3125</v>
       </c>
       <c r="E102" s="2">
-        <v>0.73611111111112904</v>
+        <v>0.7090277777777777</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2611,13 +2611,13 @@
         <v>6</v>
       </c>
       <c r="C103" s="1">
-        <v>44814</v>
+        <v>44714</v>
       </c>
       <c r="D103" s="2">
-        <v>0.32013888888887498</v>
+        <v>0.31597222222222221</v>
       </c>
       <c r="E103" s="2">
-        <v>0.73680555555557403</v>
+        <v>0.71111111111111114</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2628,13 +2628,13 @@
         <v>6</v>
       </c>
       <c r="C104" s="1">
-        <v>44815</v>
+        <v>44715</v>
       </c>
       <c r="D104" s="2">
-        <v>0.32083333333331898</v>
+        <v>0.31944444444444398</v>
       </c>
       <c r="E104" s="2">
-        <v>0.73750000000001903</v>
+        <v>0.71319444444444502</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2645,13 +2645,13 @@
         <v>6</v>
       </c>
       <c r="C105" s="1">
-        <v>44816</v>
+        <v>44716</v>
       </c>
       <c r="D105" s="2">
-        <v>0.32152777777776298</v>
+        <v>0.32291666666666702</v>
       </c>
       <c r="E105" s="2">
-        <v>0.73819444444446403</v>
+        <v>0.71527777777777801</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2662,13 +2662,13 @@
         <v>6</v>
       </c>
       <c r="C106" s="1">
-        <v>44817</v>
+        <v>44717</v>
       </c>
       <c r="D106" s="2">
-        <v>0.32222222222220698</v>
+        <v>0.32638888888888901</v>
       </c>
       <c r="E106" s="2">
-        <v>0.73888888888890902</v>
+        <v>0.71736111111111101</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2679,13 +2679,13 @@
         <v>6</v>
       </c>
       <c r="C107" s="1">
-        <v>44818</v>
+        <v>44718</v>
       </c>
       <c r="D107" s="2">
-        <v>0.32291666666665098</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="E107" s="2">
-        <v>0.73958333333335402</v>
+        <v>0.719444444444445</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2696,13 +2696,13 @@
         <v>6</v>
       </c>
       <c r="C108" s="1">
-        <v>44819</v>
+        <v>44719</v>
       </c>
       <c r="D108" s="2">
-        <v>0.32361111111109497</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E108" s="2">
-        <v>0.74027777777779902</v>
+        <v>0.72152777777777799</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2713,13 +2713,13 @@
         <v>6</v>
       </c>
       <c r="C109" s="1">
-        <v>44820</v>
+        <v>44720</v>
       </c>
       <c r="D109" s="2">
-        <v>0.32430555555553903</v>
+        <v>0.33680555555555602</v>
       </c>
       <c r="E109" s="2">
-        <v>0.74097222222224401</v>
+        <v>0.72361111111111198</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2730,13 +2730,13 @@
         <v>6</v>
       </c>
       <c r="C110" s="1">
-        <v>44821</v>
+        <v>44721</v>
       </c>
       <c r="D110" s="2">
-        <v>0.32499999999998302</v>
+        <v>0.34027777777777801</v>
       </c>
       <c r="E110" s="2">
-        <v>0.74166666666668901</v>
+        <v>0.72569444444444497</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2747,13 +2747,13 @@
         <v>6</v>
       </c>
       <c r="C111" s="1">
-        <v>44822</v>
+        <v>44722</v>
       </c>
       <c r="D111" s="2">
-        <v>0.32569444444442702</v>
+        <v>0.3125</v>
       </c>
       <c r="E111" s="2">
-        <v>0.74236111111113401</v>
+        <v>0.72777777777777897</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -2764,13 +2764,13 @@
         <v>6</v>
       </c>
       <c r="C112" s="1">
-        <v>44823</v>
+        <v>44723</v>
       </c>
       <c r="D112" s="2">
-        <v>0.32638888888887102</v>
+        <v>0.31597222222222221</v>
       </c>
       <c r="E112" s="2">
-        <v>0.74305555555557901</v>
+        <v>0.72986111111111196</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2781,13 +2781,13 @@
         <v>6</v>
       </c>
       <c r="C113" s="1">
-        <v>44824</v>
+        <v>44724</v>
       </c>
       <c r="D113" s="2">
-        <v>0.32708333333331502</v>
+        <v>0.31944444444444398</v>
       </c>
       <c r="E113" s="2">
-        <v>0.743750000000024</v>
+        <v>0.73194444444444595</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2798,13 +2798,13 @@
         <v>6</v>
       </c>
       <c r="C114" s="1">
-        <v>44825</v>
+        <v>44725</v>
       </c>
       <c r="D114" s="2">
-        <v>0.32777777777775902</v>
+        <v>0.32291666666666702</v>
       </c>
       <c r="E114" s="2">
-        <v>0.744444444444469</v>
+        <v>0.73402777777777894</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2815,13 +2815,13 @@
         <v>6</v>
       </c>
       <c r="C115" s="1">
-        <v>44826</v>
+        <v>44726</v>
       </c>
       <c r="D115" s="2">
-        <v>0.32847222222220301</v>
+        <v>0.32638888888888901</v>
       </c>
       <c r="E115" s="2">
-        <v>0.745138888888914</v>
+        <v>0.73611111111111205</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2832,13 +2832,13 @@
         <v>6</v>
       </c>
       <c r="C116" s="1">
-        <v>44827</v>
+        <v>44727</v>
       </c>
       <c r="D116" s="2">
-        <v>0.32916666666664701</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="E116" s="2">
-        <v>0.74583333333335899</v>
+        <v>0.73819444444444604</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2849,13 +2849,13 @@
         <v>6</v>
       </c>
       <c r="C117" s="1">
-        <v>44828</v>
+        <v>44728</v>
       </c>
       <c r="D117" s="2">
-        <v>0.32986111111109101</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E117" s="2">
-        <v>0.74652777777780399</v>
+        <v>0.74027777777777903</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2866,13 +2866,13 @@
         <v>6</v>
       </c>
       <c r="C118" s="1">
-        <v>44829</v>
+        <v>44729</v>
       </c>
       <c r="D118" s="2">
-        <v>0.33055555555553501</v>
+        <v>0.33680555555555602</v>
       </c>
       <c r="E118" s="2">
-        <v>0.74722222222224899</v>
+        <v>0.74236111111111303</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -2883,13 +2883,13 @@
         <v>6</v>
       </c>
       <c r="C119" s="1">
-        <v>44830</v>
+        <v>44730</v>
       </c>
       <c r="D119" s="2">
-        <v>0.33124999999997901</v>
+        <v>0.34027777777777801</v>
       </c>
       <c r="E119" s="2">
-        <v>0.74791666666669399</v>
+        <v>0.74444444444444602</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -2900,13 +2900,13 @@
         <v>6</v>
       </c>
       <c r="C120" s="1">
-        <v>44831</v>
+        <v>44731</v>
       </c>
       <c r="D120" s="2">
-        <v>0.331944444444423</v>
+        <v>0.3125</v>
       </c>
       <c r="E120" s="2">
-        <v>0.74861111111113898</v>
+        <v>0.74652777777778001</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -2917,13 +2917,13 @@
         <v>6</v>
       </c>
       <c r="C121" s="1">
-        <v>44832</v>
+        <v>44732</v>
       </c>
       <c r="D121" s="2">
-        <v>0.332638888888867</v>
+        <v>0.31597222222222221</v>
       </c>
       <c r="E121" s="2">
-        <v>0.74930555555558398</v>
+        <v>0.748611111111113</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -2934,13 +2934,13 @@
         <v>6</v>
       </c>
       <c r="C122" s="1">
-        <v>44833</v>
+        <v>44733</v>
       </c>
       <c r="D122" s="2">
-        <v>0.333333333333311</v>
+        <v>0.31944444444444398</v>
       </c>
       <c r="E122" s="2">
-        <v>0.75000000000002898</v>
+        <v>0.750694444444446</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -2951,1050 +2951,3039 @@
         <v>6</v>
       </c>
       <c r="C123" s="1">
-        <v>44834</v>
+        <v>44734</v>
       </c>
       <c r="D123" s="2">
-        <v>0.334027777777755</v>
+        <v>0.32291666666666702</v>
       </c>
       <c r="E123" s="2">
-        <v>0.75069444444447397</v>
+        <v>0.75277777777777999</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C124" s="1">
-        <v>44774</v>
+        <v>44735</v>
       </c>
       <c r="D124" s="2">
-        <v>0.29236111111111113</v>
+        <v>0.32638888888888901</v>
       </c>
       <c r="E124" s="2">
-        <v>0.7090277777777777</v>
+        <v>0.75486111111111298</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125" s="1">
-        <v>44775</v>
+        <v>44736</v>
       </c>
       <c r="D125" s="2">
-        <v>0.29305555555555557</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="E125" s="2">
-        <v>0.70972222222222225</v>
+        <v>0.75694444444444697</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C126" s="1">
-        <v>44776</v>
+        <v>44737</v>
       </c>
       <c r="D126" s="2">
-        <v>0.29375000000000001</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E126" s="2">
-        <v>0.71041666666666703</v>
+        <v>0.75902777777777997</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C127" s="1">
-        <v>44777</v>
+        <v>44738</v>
       </c>
       <c r="D127" s="2">
-        <v>0.29444444444444401</v>
+        <v>0.33680555555555602</v>
       </c>
       <c r="E127" s="2">
-        <v>0.71111111111111103</v>
+        <v>0.7090277777777777</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128" s="1">
-        <v>44778</v>
+        <v>44739</v>
       </c>
       <c r="D128" s="2">
-        <v>0.29513888888888901</v>
+        <v>0.34027777777777801</v>
       </c>
       <c r="E128" s="2">
-        <v>0.71180555555555602</v>
+        <v>0.71111111111111114</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" s="1">
-        <v>44779</v>
+        <v>44740</v>
       </c>
       <c r="D129" s="2">
-        <v>0.295833333333333</v>
+        <v>0.3125</v>
       </c>
       <c r="E129" s="2">
-        <v>0.71250000000000002</v>
+        <v>0.71319444444444502</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130" s="1">
-        <v>44780</v>
+        <v>44741</v>
       </c>
       <c r="D130" s="2">
-        <v>0.296527777777778</v>
+        <v>0.31597222222222221</v>
       </c>
       <c r="E130" s="2">
-        <v>0.71319444444444502</v>
+        <v>0.71527777777777801</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C131" s="1">
-        <v>44781</v>
+        <v>44742</v>
       </c>
       <c r="D131" s="2">
-        <v>0.297222222222222</v>
+        <v>0.31944444444444398</v>
       </c>
       <c r="E131" s="2">
-        <v>0.71388888888889002</v>
+        <v>0.71736111111111101</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C132" s="1">
-        <v>44782</v>
+        <v>44743</v>
       </c>
       <c r="D132" s="2">
-        <v>0.297916666666667</v>
+        <v>0.32291666666666702</v>
       </c>
       <c r="E132" s="2">
-        <v>0.71458333333333401</v>
+        <v>0.719444444444445</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C133" s="1">
-        <v>44783</v>
+        <v>44744</v>
       </c>
       <c r="D133" s="2">
-        <v>0.29861111111111099</v>
+        <v>0.32638888888888901</v>
       </c>
       <c r="E133" s="2">
-        <v>0.71527777777777901</v>
+        <v>0.72152777777777799</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C134" s="1">
-        <v>44784</v>
+        <v>44745</v>
       </c>
       <c r="D134" s="2">
-        <v>0.29930555555555499</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="E134" s="2">
-        <v>0.71597222222222401</v>
+        <v>0.72361111111111198</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C135" s="1">
-        <v>44785</v>
+        <v>44746</v>
       </c>
       <c r="D135" s="2">
-        <v>0.29999999999999899</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E135" s="2">
-        <v>0.71666666666666901</v>
+        <v>0.72569444444444497</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C136" s="1">
-        <v>44786</v>
+        <v>44747</v>
       </c>
       <c r="D136" s="2">
-        <v>0.30069444444444299</v>
+        <v>0.33680555555555602</v>
       </c>
       <c r="E136" s="2">
-        <v>0.717361111111114</v>
+        <v>0.72777777777777897</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C137" s="1">
-        <v>44787</v>
+        <v>44748</v>
       </c>
       <c r="D137" s="2">
-        <v>0.30138888888888699</v>
+        <v>0.34027777777777801</v>
       </c>
       <c r="E137" s="2">
-        <v>0.718055555555559</v>
+        <v>0.72986111111111196</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C138" s="1">
-        <v>44788</v>
+        <v>44749</v>
       </c>
       <c r="D138" s="2">
-        <v>0.30208333333333098</v>
+        <v>0.3125</v>
       </c>
       <c r="E138" s="2">
-        <v>0.718750000000004</v>
+        <v>0.73194444444444595</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C139" s="1">
-        <v>44789</v>
+        <v>44750</v>
       </c>
       <c r="D139" s="2">
-        <v>0.30277777777777498</v>
+        <v>0.31597222222222221</v>
       </c>
       <c r="E139" s="2">
-        <v>0.71944444444444899</v>
+        <v>0.73402777777777894</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C140" s="1">
-        <v>44790</v>
+        <v>44751</v>
       </c>
       <c r="D140" s="2">
-        <v>0.30347222222221898</v>
+        <v>0.31944444444444398</v>
       </c>
       <c r="E140" s="2">
-        <v>0.72013888888889399</v>
+        <v>0.73611111111111205</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C141" s="1">
-        <v>44791</v>
+        <v>44752</v>
       </c>
       <c r="D141" s="2">
-        <v>0.30416666666666298</v>
+        <v>0.32291666666666702</v>
       </c>
       <c r="E141" s="2">
-        <v>0.72083333333333899</v>
+        <v>0.73819444444444604</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C142" s="1">
-        <v>44792</v>
+        <v>44753</v>
       </c>
       <c r="D142" s="2">
-        <v>0.30486111111110697</v>
+        <v>0.32638888888888901</v>
       </c>
       <c r="E142" s="2">
-        <v>0.72152777777778399</v>
+        <v>0.74027777777777903</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" s="1">
-        <v>44793</v>
+        <v>44754</v>
       </c>
       <c r="D143" s="2">
-        <v>0.34722222222222227</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="E143" s="2">
-        <v>0.84722222222222221</v>
+        <v>0.74236111111111303</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C144" s="1">
-        <v>44794</v>
+        <v>44755</v>
       </c>
       <c r="D144" s="2">
-        <v>0.30624999999999503</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E144" s="2">
-        <v>0.72291666666667398</v>
+        <v>0.74444444444444602</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145" s="1">
-        <v>44795</v>
+        <v>44756</v>
       </c>
       <c r="D145" s="2">
-        <v>0.30694444444443902</v>
+        <v>0.33680555555555602</v>
       </c>
       <c r="E145" s="2">
-        <v>0.72361111111111898</v>
+        <v>0.74652777777778001</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C146" s="1">
-        <v>44796</v>
+        <v>44757</v>
       </c>
       <c r="D146" s="2">
-        <v>0.30763888888888302</v>
+        <v>0.34027777777777801</v>
       </c>
       <c r="E146" s="2">
-        <v>0.72430555555556397</v>
+        <v>0.748611111111113</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" s="1">
-        <v>44797</v>
+        <v>44758</v>
       </c>
       <c r="D147" s="2">
-        <v>0.30833333333332702</v>
+        <v>0.3125</v>
       </c>
       <c r="E147" s="2">
-        <v>0.72500000000000897</v>
+        <v>0.750694444444446</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C148" s="1">
-        <v>44798</v>
+        <v>44759</v>
       </c>
       <c r="D148" s="2">
-        <v>0.30902777777777102</v>
+        <v>0.31597222222222221</v>
       </c>
       <c r="E148" s="2">
-        <v>0.72569444444445397</v>
+        <v>0.75277777777777999</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" s="1">
-        <v>44799</v>
+        <v>44760</v>
       </c>
       <c r="D149" s="2">
-        <v>0.30972222222221502</v>
+        <v>0.31944444444444398</v>
       </c>
       <c r="E149" s="2">
-        <v>0.72638888888889896</v>
+        <v>0.75486111111111298</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C150" s="1">
-        <v>44800</v>
+        <v>44761</v>
       </c>
       <c r="D150" s="2">
-        <v>0.31041666666665901</v>
+        <v>0.32291666666666702</v>
       </c>
       <c r="E150" s="2">
-        <v>0.72708333333334396</v>
+        <v>0.75694444444444697</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C151" s="1">
-        <v>44801</v>
+        <v>44762</v>
       </c>
       <c r="D151" s="2">
-        <v>0.31111111111110301</v>
+        <v>0.32638888888888901</v>
       </c>
       <c r="E151" s="2">
-        <v>0.72777777777778896</v>
+        <v>0.75902777777777997</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C152" s="1">
-        <v>44802</v>
+        <v>44763</v>
       </c>
       <c r="D152" s="2">
-        <v>0.31180555555554701</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="E152" s="2">
-        <v>0.72847222222223396</v>
+        <v>0.7090277777777777</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C153" s="1">
-        <v>44803</v>
+        <v>44764</v>
       </c>
       <c r="D153" s="2">
-        <v>0.35416666666666669</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E153" s="2">
-        <v>0.8125</v>
+        <v>0.71111111111111114</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154" s="1">
-        <v>44804</v>
+        <v>44765</v>
       </c>
       <c r="D154" s="2">
-        <v>0.31319444444443501</v>
+        <v>0.33680555555555602</v>
       </c>
       <c r="E154" s="2">
-        <v>0.72986111111112395</v>
+        <v>0.71319444444444502</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" s="1">
-        <v>44805</v>
+        <v>44766</v>
       </c>
       <c r="D155" s="2">
-        <v>0.313888888888879</v>
+        <v>0.34027777777777801</v>
       </c>
       <c r="E155" s="2">
-        <v>0.73055555555556895</v>
+        <v>0.71527777777777801</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C156" s="1">
-        <v>44806</v>
+        <v>44767</v>
       </c>
       <c r="D156" s="2">
-        <v>0.314583333333323</v>
+        <v>0.3125</v>
       </c>
       <c r="E156" s="2">
-        <v>0.73125000000001406</v>
+        <v>0.71736111111111101</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C157" s="1">
-        <v>44807</v>
+        <v>44768</v>
       </c>
       <c r="D157" s="2">
-        <v>0.315277777777767</v>
+        <v>0.31597222222222221</v>
       </c>
       <c r="E157" s="2">
-        <v>0.73194444444445905</v>
+        <v>0.719444444444445</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C158" s="1">
-        <v>44808</v>
+        <v>44769</v>
       </c>
       <c r="D158" s="2">
-        <v>0.315972222222211</v>
+        <v>0.31944444444444398</v>
       </c>
       <c r="E158" s="2">
-        <v>0.73263888888890405</v>
+        <v>0.72152777777777799</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C159" s="1">
-        <v>44809</v>
+        <v>44770</v>
       </c>
       <c r="D159" s="2">
-        <v>0.31666666666665499</v>
+        <v>0.32291666666666702</v>
       </c>
       <c r="E159" s="2">
-        <v>0.73333333333334905</v>
+        <v>0.72361111111111198</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C160" s="1">
-        <v>44810</v>
+        <v>44771</v>
       </c>
       <c r="D160" s="2">
-        <v>0.31736111111109899</v>
+        <v>0.32638888888888901</v>
       </c>
       <c r="E160" s="2">
-        <v>0.73402777777779404</v>
+        <v>0.72569444444444497</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C161" s="1">
-        <v>44811</v>
+        <v>44772</v>
       </c>
       <c r="D161" s="2">
-        <v>0.31805555555554299</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="E161" s="2">
-        <v>0.73472222222223904</v>
+        <v>0.72777777777777897</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C162" s="1">
-        <v>44812</v>
+        <v>44773</v>
       </c>
       <c r="D162" s="2">
-        <v>0.31874999999998699</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E162" s="2">
-        <v>0.73541666666668404</v>
+        <v>0.72986111111111196</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C163" s="1">
-        <v>44813</v>
+        <v>44774</v>
       </c>
       <c r="D163" s="2">
-        <v>0.31944444444443099</v>
+        <v>0.33680555555555602</v>
       </c>
       <c r="E163" s="2">
-        <v>0.73611111111112904</v>
+        <v>0.73194444444444595</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" s="1">
-        <v>44814</v>
+        <v>44775</v>
       </c>
       <c r="D164" s="2">
-        <v>0.32013888888887498</v>
+        <v>0.34027777777777801</v>
       </c>
       <c r="E164" s="2">
-        <v>0.73680555555557403</v>
+        <v>0.73402777777777894</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C165" s="1">
-        <v>44815</v>
+        <v>44776</v>
       </c>
       <c r="D165" s="2">
-        <v>0.32083333333331898</v>
+        <v>0.3125</v>
       </c>
       <c r="E165" s="2">
-        <v>0.73750000000001903</v>
+        <v>0.73611111111111205</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C166" s="1">
-        <v>44816</v>
+        <v>44777</v>
       </c>
       <c r="D166" s="2">
-        <v>0.32152777777776298</v>
+        <v>0.31597222222222221</v>
       </c>
       <c r="E166" s="2">
-        <v>0.73819444444446403</v>
+        <v>0.73819444444444604</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C167" s="1">
-        <v>44817</v>
+        <v>44778</v>
       </c>
       <c r="D167" s="2">
-        <v>0.32222222222220698</v>
+        <v>0.31944444444444398</v>
       </c>
       <c r="E167" s="2">
-        <v>0.73888888888890902</v>
+        <v>0.74027777777777903</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168" s="1">
-        <v>44818</v>
+        <v>44779</v>
       </c>
       <c r="D168" s="2">
-        <v>0.32291666666665098</v>
+        <v>0.32291666666666702</v>
       </c>
       <c r="E168" s="2">
-        <v>0.73958333333335402</v>
+        <v>0.74236111111111303</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C169" s="1">
-        <v>44819</v>
+        <v>44780</v>
       </c>
       <c r="D169" s="2">
-        <v>0.32361111111109497</v>
+        <v>0.32638888888888901</v>
       </c>
       <c r="E169" s="2">
-        <v>0.74027777777779902</v>
+        <v>0.74444444444444602</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" s="1">
-        <v>44820</v>
+        <v>44781</v>
       </c>
       <c r="D170" s="2">
-        <v>0.32430555555553903</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="E170" s="2">
-        <v>0.74097222222224401</v>
+        <v>0.74652777777778001</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C171" s="1">
-        <v>44821</v>
+        <v>44782</v>
       </c>
       <c r="D171" s="2">
-        <v>0.32499999999998302</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E171" s="2">
-        <v>0.74166666666668901</v>
+        <v>0.748611111111113</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C172" s="1">
-        <v>44822</v>
+        <v>44783</v>
       </c>
       <c r="D172" s="2">
-        <v>0.32569444444442702</v>
+        <v>0.33680555555555602</v>
       </c>
       <c r="E172" s="2">
-        <v>0.74236111111113401</v>
+        <v>0.750694444444446</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C173" s="1">
-        <v>44823</v>
+        <v>44784</v>
       </c>
       <c r="D173" s="2">
-        <v>0.32638888888887102</v>
+        <v>0.34027777777777801</v>
       </c>
       <c r="E173" s="2">
-        <v>0.74305555555557901</v>
+        <v>0.75277777777777999</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C174" s="1">
-        <v>44824</v>
+        <v>44785</v>
       </c>
       <c r="D174" s="2">
-        <v>0.32708333333331502</v>
+        <v>0.3125</v>
       </c>
       <c r="E174" s="2">
-        <v>0.743750000000024</v>
+        <v>0.75486111111111298</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C175" s="1">
-        <v>44825</v>
+        <v>44786</v>
       </c>
       <c r="D175" s="2">
-        <v>0.32777777777775902</v>
+        <v>0.31597222222222221</v>
       </c>
       <c r="E175" s="2">
-        <v>0.744444444444469</v>
+        <v>0.75694444444444697</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C176" s="1">
-        <v>44826</v>
+        <v>44787</v>
       </c>
       <c r="D176" s="2">
-        <v>0.32847222222220301</v>
+        <v>0.31944444444444398</v>
       </c>
       <c r="E176" s="2">
-        <v>0.745138888888914</v>
+        <v>0.75902777777777997</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177" s="1">
-        <v>44827</v>
+        <v>44788</v>
       </c>
       <c r="D177" s="2">
-        <v>0.32916666666664701</v>
+        <v>0.32291666666666702</v>
       </c>
       <c r="E177" s="2">
-        <v>0.74583333333335899</v>
+        <v>0.7090277777777777</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C178" s="1">
-        <v>44828</v>
+        <v>44789</v>
       </c>
       <c r="D178" s="2">
-        <v>0.32986111111109101</v>
+        <v>0.32638888888888901</v>
       </c>
       <c r="E178" s="2">
-        <v>0.74652777777780399</v>
+        <v>0.71111111111111114</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C179" s="1">
-        <v>44829</v>
+        <v>44790</v>
       </c>
       <c r="D179" s="2">
-        <v>0.33055555555553501</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="E179" s="2">
-        <v>0.74722222222224899</v>
+        <v>0.71319444444444502</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C180" s="1">
-        <v>44830</v>
+        <v>44791</v>
       </c>
       <c r="D180" s="2">
-        <v>0.33124999999997901</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E180" s="2">
-        <v>0.74791666666669399</v>
+        <v>0.71527777777777801</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" s="1">
-        <v>44831</v>
+        <v>44792</v>
       </c>
       <c r="D181" s="2">
-        <v>0.331944444444423</v>
+        <v>0.33680555555555602</v>
       </c>
       <c r="E181" s="2">
-        <v>0.74861111111113898</v>
+        <v>0.71736111111111101</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C182" s="1">
-        <v>44832</v>
+        <v>44793</v>
       </c>
       <c r="D182" s="2">
-        <v>0.332638888888867</v>
+        <v>0.34027777777777801</v>
       </c>
       <c r="E182" s="2">
-        <v>0.74930555555558398</v>
+        <v>0.719444444444445</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C183" s="1">
-        <v>44833</v>
+        <v>44794</v>
       </c>
       <c r="D183" s="2">
-        <v>0.333333333333311</v>
+        <v>0.3125</v>
       </c>
       <c r="E183" s="2">
-        <v>0.75000000000002898</v>
+        <v>0.72152777777777799</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C184" s="1">
-        <v>44834</v>
+        <v>44795</v>
       </c>
       <c r="D184" s="2">
-        <v>0.334027777777755</v>
+        <v>0.31597222222222221</v>
       </c>
       <c r="E184" s="2">
-        <v>0.75069444444447397</v>
+        <v>0.72361111111111198</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>2</v>
+      </c>
+      <c r="B185" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" s="1">
+        <v>44796</v>
+      </c>
+      <c r="D185" s="2">
+        <v>0.31944444444444398</v>
+      </c>
+      <c r="E185" s="2">
+        <v>0.72569444444444497</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>2</v>
+      </c>
+      <c r="B186" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" s="1">
+        <v>44797</v>
+      </c>
+      <c r="D186" s="2">
+        <v>0.32291666666666702</v>
+      </c>
+      <c r="E186" s="2">
+        <v>0.72777777777777897</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>2</v>
+      </c>
+      <c r="B187" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" s="1">
+        <v>44798</v>
+      </c>
+      <c r="D187" s="2">
+        <v>0.32638888888888901</v>
+      </c>
+      <c r="E187" s="2">
+        <v>0.72986111111111196</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>2</v>
+      </c>
+      <c r="B188" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" s="1">
+        <v>44799</v>
+      </c>
+      <c r="D188" s="2">
+        <v>0.32986111111111099</v>
+      </c>
+      <c r="E188" s="2">
+        <v>0.73194444444444595</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>2</v>
+      </c>
+      <c r="B189" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" s="1">
+        <v>44800</v>
+      </c>
+      <c r="D189" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="E189" s="2">
+        <v>0.73402777777777894</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>2</v>
+      </c>
+      <c r="B190" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190" s="1">
+        <v>44801</v>
+      </c>
+      <c r="D190" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+      <c r="E190" s="2">
+        <v>0.73611111111111205</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>2</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" s="1">
+        <v>44802</v>
+      </c>
+      <c r="D191" s="2">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E191" s="2">
+        <v>0.73819444444444604</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>2</v>
+      </c>
+      <c r="B192" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" s="1">
+        <v>44803</v>
+      </c>
+      <c r="D192" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="E192" s="2">
+        <v>0.74027777777777903</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>2</v>
+      </c>
+      <c r="B193" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" s="1">
+        <v>44804</v>
+      </c>
+      <c r="D193" s="2">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="E193" s="2">
+        <v>0.74236111111111303</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>2</v>
+      </c>
+      <c r="B194" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D194" s="2">
+        <v>0.31944444444444398</v>
+      </c>
+      <c r="E194" s="2">
+        <v>0.74444444444444602</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>2</v>
+      </c>
+      <c r="B195" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195" s="1">
+        <v>44806</v>
+      </c>
+      <c r="D195" s="2">
+        <v>0.32291666666666702</v>
+      </c>
+      <c r="E195" s="2">
+        <v>0.74652777777778001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>2</v>
+      </c>
+      <c r="B196" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" s="1">
+        <v>44807</v>
+      </c>
+      <c r="D196" s="2">
+        <v>0.32638888888888901</v>
+      </c>
+      <c r="E196" s="2">
+        <v>0.748611111111113</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>2</v>
+      </c>
+      <c r="B197" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197" s="1">
+        <v>44808</v>
+      </c>
+      <c r="D197" s="2">
+        <v>0.32986111111111099</v>
+      </c>
+      <c r="E197" s="2">
+        <v>0.750694444444446</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>2</v>
+      </c>
+      <c r="B198" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198" s="1">
+        <v>44809</v>
+      </c>
+      <c r="D198" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="E198" s="2">
+        <v>0.75277777777777999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>2</v>
+      </c>
+      <c r="B199" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199" s="1">
+        <v>44810</v>
+      </c>
+      <c r="D199" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+      <c r="E199" s="2">
+        <v>0.75486111111111298</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>2</v>
+      </c>
+      <c r="B200" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200" s="1">
+        <v>44811</v>
+      </c>
+      <c r="D200" s="2">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E200" s="2">
+        <v>0.75694444444444697</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>2</v>
+      </c>
+      <c r="B201" t="s">
+        <v>6</v>
+      </c>
+      <c r="C201" s="1">
+        <v>44812</v>
+      </c>
+      <c r="D201" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="E201" s="2">
+        <v>0.75902777777777997</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>3</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" s="1">
+        <v>44713</v>
+      </c>
+      <c r="D202" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="E202" s="2">
+        <v>0.7090277777777777</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>3</v>
+      </c>
+      <c r="B203" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" s="1">
+        <v>44714</v>
+      </c>
+      <c r="D203" s="2">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="E203" s="2">
+        <v>0.71111111111111114</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>3</v>
+      </c>
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" s="1">
+        <v>44715</v>
+      </c>
+      <c r="D204" s="2">
+        <v>0.31944444444444398</v>
+      </c>
+      <c r="E204" s="2">
+        <v>0.71319444444444502</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>3</v>
+      </c>
+      <c r="B205" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205" s="1">
+        <v>44716</v>
+      </c>
+      <c r="D205" s="2">
+        <v>0.32291666666666702</v>
+      </c>
+      <c r="E205" s="2">
+        <v>0.71527777777777801</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>3</v>
+      </c>
+      <c r="B206" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" s="1">
+        <v>44717</v>
+      </c>
+      <c r="D206" s="2">
+        <v>0.32638888888888901</v>
+      </c>
+      <c r="E206" s="2">
+        <v>0.71736111111111101</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>3</v>
+      </c>
+      <c r="B207" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207" s="1">
+        <v>44718</v>
+      </c>
+      <c r="D207" s="2">
+        <v>0.32986111111111099</v>
+      </c>
+      <c r="E207" s="2">
+        <v>0.719444444444445</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>3</v>
+      </c>
+      <c r="B208" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" s="1">
+        <v>44719</v>
+      </c>
+      <c r="D208" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="E208" s="2">
+        <v>0.72152777777777799</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>3</v>
+      </c>
+      <c r="B209" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" s="1">
+        <v>44720</v>
+      </c>
+      <c r="D209" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+      <c r="E209" s="2">
+        <v>0.72361111111111198</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>3</v>
+      </c>
+      <c r="B210" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" s="1">
+        <v>44721</v>
+      </c>
+      <c r="D210" s="2">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E210" s="2">
+        <v>0.72569444444444497</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>3</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" s="1">
+        <v>44722</v>
+      </c>
+      <c r="D211" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="E211" s="2">
+        <v>0.72777777777777897</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>3</v>
+      </c>
+      <c r="B212" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" s="1">
+        <v>44723</v>
+      </c>
+      <c r="D212" s="2">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="E212" s="2">
+        <v>0.72986111111111196</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>3</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" s="1">
+        <v>44724</v>
+      </c>
+      <c r="D213" s="2">
+        <v>0.31944444444444398</v>
+      </c>
+      <c r="E213" s="2">
+        <v>0.73194444444444595</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>3</v>
+      </c>
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" s="1">
+        <v>44725</v>
+      </c>
+      <c r="D214" s="2">
+        <v>0.32291666666666702</v>
+      </c>
+      <c r="E214" s="2">
+        <v>0.73402777777777894</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>3</v>
+      </c>
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" s="1">
+        <v>44726</v>
+      </c>
+      <c r="D215" s="2">
+        <v>0.32638888888888901</v>
+      </c>
+      <c r="E215" s="2">
+        <v>0.73611111111111205</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>3</v>
+      </c>
+      <c r="B216" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" s="1">
+        <v>44727</v>
+      </c>
+      <c r="D216" s="2">
+        <v>0.32986111111111099</v>
+      </c>
+      <c r="E216" s="2">
+        <v>0.73819444444444604</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>3</v>
+      </c>
+      <c r="B217" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" s="1">
+        <v>44728</v>
+      </c>
+      <c r="D217" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="E217" s="2">
+        <v>0.74027777777777903</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>3</v>
+      </c>
+      <c r="B218" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" s="1">
+        <v>44729</v>
+      </c>
+      <c r="D218" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+      <c r="E218" s="2">
+        <v>0.74236111111111303</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>3</v>
+      </c>
+      <c r="B219" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" s="1">
+        <v>44730</v>
+      </c>
+      <c r="D219" s="2">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E219" s="2">
+        <v>0.74444444444444602</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>3</v>
+      </c>
+      <c r="B220" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" s="1">
+        <v>44731</v>
+      </c>
+      <c r="D220" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="E220" s="2">
+        <v>0.74652777777778001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>3</v>
+      </c>
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" s="1">
+        <v>44732</v>
+      </c>
+      <c r="D221" s="2">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="E221" s="2">
+        <v>0.748611111111113</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>3</v>
+      </c>
+      <c r="B222" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" s="1">
+        <v>44733</v>
+      </c>
+      <c r="D222" s="2">
+        <v>0.31944444444444398</v>
+      </c>
+      <c r="E222" s="2">
+        <v>0.750694444444446</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>3</v>
+      </c>
+      <c r="B223" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" s="1">
+        <v>44734</v>
+      </c>
+      <c r="D223" s="2">
+        <v>0.32291666666666702</v>
+      </c>
+      <c r="E223" s="2">
+        <v>0.75277777777777999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>3</v>
+      </c>
+      <c r="B224" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224" s="1">
+        <v>44735</v>
+      </c>
+      <c r="D224" s="2">
+        <v>0.32638888888888901</v>
+      </c>
+      <c r="E224" s="2">
+        <v>0.75486111111111298</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>3</v>
+      </c>
+      <c r="B225" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225" s="1">
+        <v>44736</v>
+      </c>
+      <c r="D225" s="2">
+        <v>0.32986111111111099</v>
+      </c>
+      <c r="E225" s="2">
+        <v>0.75694444444444697</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>3</v>
+      </c>
+      <c r="B226" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" s="1">
+        <v>44737</v>
+      </c>
+      <c r="D226" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="E226" s="2">
+        <v>0.75902777777777997</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>3</v>
+      </c>
+      <c r="B227" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227" s="1">
+        <v>44738</v>
+      </c>
+      <c r="D227" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+      <c r="E227" s="2">
+        <v>0.7090277777777777</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>3</v>
+      </c>
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" s="1">
+        <v>44739</v>
+      </c>
+      <c r="D228" s="2">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E228" s="2">
+        <v>0.71111111111111114</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>3</v>
+      </c>
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" s="1">
+        <v>44740</v>
+      </c>
+      <c r="D229" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="E229" s="2">
+        <v>0.71319444444444502</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>3</v>
+      </c>
+      <c r="B230" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" s="1">
+        <v>44741</v>
+      </c>
+      <c r="D230" s="2">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="E230" s="2">
+        <v>0.71527777777777801</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>3</v>
+      </c>
+      <c r="B231" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231" s="1">
+        <v>44742</v>
+      </c>
+      <c r="D231" s="2">
+        <v>0.31944444444444398</v>
+      </c>
+      <c r="E231" s="2">
+        <v>0.71736111111111101</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>3</v>
+      </c>
+      <c r="B232" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232" s="1">
+        <v>44743</v>
+      </c>
+      <c r="D232" s="2">
+        <v>0.32291666666666702</v>
+      </c>
+      <c r="E232" s="2">
+        <v>0.719444444444445</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>3</v>
+      </c>
+      <c r="B233" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" s="1">
+        <v>44744</v>
+      </c>
+      <c r="D233" s="2">
+        <v>0.32638888888888901</v>
+      </c>
+      <c r="E233" s="2">
+        <v>0.72152777777777799</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>3</v>
+      </c>
+      <c r="B234" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234" s="1">
+        <v>44745</v>
+      </c>
+      <c r="D234" s="2">
+        <v>0.32986111111111099</v>
+      </c>
+      <c r="E234" s="2">
+        <v>0.72361111111111198</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>3</v>
+      </c>
+      <c r="B235" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235" s="1">
+        <v>44746</v>
+      </c>
+      <c r="D235" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="E235" s="2">
+        <v>0.72569444444444497</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>3</v>
+      </c>
+      <c r="B236" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" s="1">
+        <v>44747</v>
+      </c>
+      <c r="D236" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+      <c r="E236" s="2">
+        <v>0.72777777777777897</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>3</v>
+      </c>
+      <c r="B237" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237" s="1">
+        <v>44748</v>
+      </c>
+      <c r="D237" s="2">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E237" s="2">
+        <v>0.72986111111111196</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>3</v>
+      </c>
+      <c r="B238" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238" s="1">
+        <v>44749</v>
+      </c>
+      <c r="D238" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="E238" s="2">
+        <v>0.73194444444444595</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>3</v>
+      </c>
+      <c r="B239" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" s="1">
+        <v>44750</v>
+      </c>
+      <c r="D239" s="2">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="E239" s="2">
+        <v>0.73402777777777894</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>3</v>
+      </c>
+      <c r="B240" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" s="1">
+        <v>44751</v>
+      </c>
+      <c r="D240" s="2">
+        <v>0.31944444444444398</v>
+      </c>
+      <c r="E240" s="2">
+        <v>0.73611111111111205</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>3</v>
+      </c>
+      <c r="B241" t="s">
+        <v>7</v>
+      </c>
+      <c r="C241" s="1">
+        <v>44752</v>
+      </c>
+      <c r="D241" s="2">
+        <v>0.32291666666666702</v>
+      </c>
+      <c r="E241" s="2">
+        <v>0.73819444444444604</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>3</v>
+      </c>
+      <c r="B242" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242" s="1">
+        <v>44753</v>
+      </c>
+      <c r="D242" s="2">
+        <v>0.32638888888888901</v>
+      </c>
+      <c r="E242" s="2">
+        <v>0.74027777777777903</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>3</v>
+      </c>
+      <c r="B243" t="s">
+        <v>7</v>
+      </c>
+      <c r="C243" s="1">
+        <v>44754</v>
+      </c>
+      <c r="D243" s="2">
+        <v>0.32986111111111099</v>
+      </c>
+      <c r="E243" s="2">
+        <v>0.74236111111111303</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>3</v>
+      </c>
+      <c r="B244" t="s">
+        <v>7</v>
+      </c>
+      <c r="C244" s="1">
+        <v>44755</v>
+      </c>
+      <c r="D244" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="E244" s="2">
+        <v>0.74444444444444602</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>3</v>
+      </c>
+      <c r="B245" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" s="1">
+        <v>44756</v>
+      </c>
+      <c r="D245" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+      <c r="E245" s="2">
+        <v>0.74652777777778001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>3</v>
+      </c>
+      <c r="B246" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246" s="1">
+        <v>44757</v>
+      </c>
+      <c r="D246" s="2">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E246" s="2">
+        <v>0.748611111111113</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>3</v>
+      </c>
+      <c r="B247" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247" s="1">
+        <v>44758</v>
+      </c>
+      <c r="D247" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="E247" s="2">
+        <v>0.750694444444446</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>3</v>
+      </c>
+      <c r="B248" t="s">
+        <v>7</v>
+      </c>
+      <c r="C248" s="1">
+        <v>44759</v>
+      </c>
+      <c r="D248" s="2">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="E248" s="2">
+        <v>0.75277777777777999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>3</v>
+      </c>
+      <c r="B249" t="s">
+        <v>7</v>
+      </c>
+      <c r="C249" s="1">
+        <v>44760</v>
+      </c>
+      <c r="D249" s="2">
+        <v>0.31944444444444398</v>
+      </c>
+      <c r="E249" s="2">
+        <v>0.75486111111111298</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>3</v>
+      </c>
+      <c r="B250" t="s">
+        <v>7</v>
+      </c>
+      <c r="C250" s="1">
+        <v>44761</v>
+      </c>
+      <c r="D250" s="2">
+        <v>0.32291666666666702</v>
+      </c>
+      <c r="E250" s="2">
+        <v>0.75694444444444697</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>3</v>
+      </c>
+      <c r="B251" t="s">
+        <v>7</v>
+      </c>
+      <c r="C251" s="1">
+        <v>44762</v>
+      </c>
+      <c r="D251" s="2">
+        <v>0.32638888888888901</v>
+      </c>
+      <c r="E251" s="2">
+        <v>0.75902777777777997</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>3</v>
+      </c>
+      <c r="B252" t="s">
+        <v>7</v>
+      </c>
+      <c r="C252" s="1">
+        <v>44763</v>
+      </c>
+      <c r="D252" s="2">
+        <v>0.32986111111111099</v>
+      </c>
+      <c r="E252" s="2">
+        <v>0.7090277777777777</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>3</v>
+      </c>
+      <c r="B253" t="s">
+        <v>7</v>
+      </c>
+      <c r="C253" s="1">
+        <v>44764</v>
+      </c>
+      <c r="D253" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="E253" s="2">
+        <v>0.71111111111111114</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>3</v>
+      </c>
+      <c r="B254" t="s">
+        <v>7</v>
+      </c>
+      <c r="C254" s="1">
+        <v>44765</v>
+      </c>
+      <c r="D254" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+      <c r="E254" s="2">
+        <v>0.71319444444444502</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>3</v>
+      </c>
+      <c r="B255" t="s">
+        <v>7</v>
+      </c>
+      <c r="C255" s="1">
+        <v>44766</v>
+      </c>
+      <c r="D255" s="2">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E255" s="2">
+        <v>0.71527777777777801</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>3</v>
+      </c>
+      <c r="B256" t="s">
+        <v>7</v>
+      </c>
+      <c r="C256" s="1">
+        <v>44767</v>
+      </c>
+      <c r="D256" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="E256" s="2">
+        <v>0.71736111111111101</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>3</v>
+      </c>
+      <c r="B257" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257" s="1">
+        <v>44768</v>
+      </c>
+      <c r="D257" s="2">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="E257" s="2">
+        <v>0.719444444444445</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>3</v>
+      </c>
+      <c r="B258" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258" s="1">
+        <v>44769</v>
+      </c>
+      <c r="D258" s="2">
+        <v>0.31944444444444398</v>
+      </c>
+      <c r="E258" s="2">
+        <v>0.72152777777777799</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>3</v>
+      </c>
+      <c r="B259" t="s">
+        <v>7</v>
+      </c>
+      <c r="C259" s="1">
+        <v>44770</v>
+      </c>
+      <c r="D259" s="2">
+        <v>0.32291666666666702</v>
+      </c>
+      <c r="E259" s="2">
+        <v>0.72361111111111198</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>3</v>
+      </c>
+      <c r="B260" t="s">
+        <v>7</v>
+      </c>
+      <c r="C260" s="1">
+        <v>44771</v>
+      </c>
+      <c r="D260" s="2">
+        <v>0.32638888888888901</v>
+      </c>
+      <c r="E260" s="2">
+        <v>0.72569444444444497</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>3</v>
+      </c>
+      <c r="B261" t="s">
+        <v>7</v>
+      </c>
+      <c r="C261" s="1">
+        <v>44772</v>
+      </c>
+      <c r="D261" s="2">
+        <v>0.32986111111111099</v>
+      </c>
+      <c r="E261" s="2">
+        <v>0.72777777777777897</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>3</v>
+      </c>
+      <c r="B262" t="s">
+        <v>7</v>
+      </c>
+      <c r="C262" s="1">
+        <v>44773</v>
+      </c>
+      <c r="D262" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="E262" s="2">
+        <v>0.72986111111111196</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>3</v>
+      </c>
+      <c r="B263" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263" s="1">
+        <v>44774</v>
+      </c>
+      <c r="D263" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+      <c r="E263" s="2">
+        <v>0.73194444444444595</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>3</v>
+      </c>
+      <c r="B264" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264" s="1">
+        <v>44775</v>
+      </c>
+      <c r="D264" s="2">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E264" s="2">
+        <v>0.73402777777777894</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>3</v>
+      </c>
+      <c r="B265" t="s">
+        <v>7</v>
+      </c>
+      <c r="C265" s="1">
+        <v>44776</v>
+      </c>
+      <c r="D265" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="E265" s="2">
+        <v>0.73611111111111205</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>3</v>
+      </c>
+      <c r="B266" t="s">
+        <v>7</v>
+      </c>
+      <c r="C266" s="1">
+        <v>44777</v>
+      </c>
+      <c r="D266" s="2">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="E266" s="2">
+        <v>0.73819444444444604</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>3</v>
+      </c>
+      <c r="B267" t="s">
+        <v>7</v>
+      </c>
+      <c r="C267" s="1">
+        <v>44778</v>
+      </c>
+      <c r="D267" s="2">
+        <v>0.31944444444444398</v>
+      </c>
+      <c r="E267" s="2">
+        <v>0.74027777777777903</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>3</v>
+      </c>
+      <c r="B268" t="s">
+        <v>7</v>
+      </c>
+      <c r="C268" s="1">
+        <v>44779</v>
+      </c>
+      <c r="D268" s="2">
+        <v>0.32291666666666702</v>
+      </c>
+      <c r="E268" s="2">
+        <v>0.74236111111111303</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>3</v>
+      </c>
+      <c r="B269" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269" s="1">
+        <v>44780</v>
+      </c>
+      <c r="D269" s="2">
+        <v>0.32638888888888901</v>
+      </c>
+      <c r="E269" s="2">
+        <v>0.74444444444444602</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>3</v>
+      </c>
+      <c r="B270" t="s">
+        <v>7</v>
+      </c>
+      <c r="C270" s="1">
+        <v>44781</v>
+      </c>
+      <c r="D270" s="2">
+        <v>0.32986111111111099</v>
+      </c>
+      <c r="E270" s="2">
+        <v>0.74652777777778001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>3</v>
+      </c>
+      <c r="B271" t="s">
+        <v>7</v>
+      </c>
+      <c r="C271" s="1">
+        <v>44782</v>
+      </c>
+      <c r="D271" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="E271" s="2">
+        <v>0.748611111111113</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>3</v>
+      </c>
+      <c r="B272" t="s">
+        <v>7</v>
+      </c>
+      <c r="C272" s="1">
+        <v>44783</v>
+      </c>
+      <c r="D272" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+      <c r="E272" s="2">
+        <v>0.750694444444446</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>3</v>
+      </c>
+      <c r="B273" t="s">
+        <v>7</v>
+      </c>
+      <c r="C273" s="1">
+        <v>44784</v>
+      </c>
+      <c r="D273" s="2">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E273" s="2">
+        <v>0.75277777777777999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>3</v>
+      </c>
+      <c r="B274" t="s">
+        <v>7</v>
+      </c>
+      <c r="C274" s="1">
+        <v>44785</v>
+      </c>
+      <c r="D274" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="E274" s="2">
+        <v>0.75486111111111298</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>3</v>
+      </c>
+      <c r="B275" t="s">
+        <v>7</v>
+      </c>
+      <c r="C275" s="1">
+        <v>44786</v>
+      </c>
+      <c r="D275" s="2">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="E275" s="2">
+        <v>0.75694444444444697</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>3</v>
+      </c>
+      <c r="B276" t="s">
+        <v>7</v>
+      </c>
+      <c r="C276" s="1">
+        <v>44787</v>
+      </c>
+      <c r="D276" s="2">
+        <v>0.31944444444444398</v>
+      </c>
+      <c r="E276" s="2">
+        <v>0.75902777777777997</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>3</v>
+      </c>
+      <c r="B277" t="s">
+        <v>7</v>
+      </c>
+      <c r="C277" s="1">
+        <v>44788</v>
+      </c>
+      <c r="D277" s="2">
+        <v>0.32291666666666702</v>
+      </c>
+      <c r="E277" s="2">
+        <v>0.7090277777777777</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>3</v>
+      </c>
+      <c r="B278" t="s">
+        <v>7</v>
+      </c>
+      <c r="C278" s="1">
+        <v>44789</v>
+      </c>
+      <c r="D278" s="2">
+        <v>0.32638888888888901</v>
+      </c>
+      <c r="E278" s="2">
+        <v>0.71111111111111114</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>3</v>
+      </c>
+      <c r="B279" t="s">
+        <v>7</v>
+      </c>
+      <c r="C279" s="1">
+        <v>44790</v>
+      </c>
+      <c r="D279" s="2">
+        <v>0.32986111111111099</v>
+      </c>
+      <c r="E279" s="2">
+        <v>0.71319444444444502</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>3</v>
+      </c>
+      <c r="B280" t="s">
+        <v>7</v>
+      </c>
+      <c r="C280" s="1">
+        <v>44791</v>
+      </c>
+      <c r="D280" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="E280" s="2">
+        <v>0.71527777777777801</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>3</v>
+      </c>
+      <c r="B281" t="s">
+        <v>7</v>
+      </c>
+      <c r="C281" s="1">
+        <v>44792</v>
+      </c>
+      <c r="D281" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+      <c r="E281" s="2">
+        <v>0.71736111111111101</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>3</v>
+      </c>
+      <c r="B282" t="s">
+        <v>7</v>
+      </c>
+      <c r="C282" s="1">
+        <v>44793</v>
+      </c>
+      <c r="D282" s="2">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E282" s="2">
+        <v>0.719444444444445</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>3</v>
+      </c>
+      <c r="B283" t="s">
+        <v>7</v>
+      </c>
+      <c r="C283" s="1">
+        <v>44794</v>
+      </c>
+      <c r="D283" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="E283" s="2">
+        <v>0.72152777777777799</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>3</v>
+      </c>
+      <c r="B284" t="s">
+        <v>7</v>
+      </c>
+      <c r="C284" s="1">
+        <v>44795</v>
+      </c>
+      <c r="D284" s="2">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="E284" s="2">
+        <v>0.72361111111111198</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>3</v>
+      </c>
+      <c r="B285" t="s">
+        <v>7</v>
+      </c>
+      <c r="C285" s="1">
+        <v>44796</v>
+      </c>
+      <c r="D285" s="2">
+        <v>0.31944444444444398</v>
+      </c>
+      <c r="E285" s="2">
+        <v>0.72569444444444497</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>3</v>
+      </c>
+      <c r="B286" t="s">
+        <v>7</v>
+      </c>
+      <c r="C286" s="1">
+        <v>44797</v>
+      </c>
+      <c r="D286" s="2">
+        <v>0.32291666666666702</v>
+      </c>
+      <c r="E286" s="2">
+        <v>0.72777777777777897</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>3</v>
+      </c>
+      <c r="B287" t="s">
+        <v>7</v>
+      </c>
+      <c r="C287" s="1">
+        <v>44798</v>
+      </c>
+      <c r="D287" s="2">
+        <v>0.32638888888888901</v>
+      </c>
+      <c r="E287" s="2">
+        <v>0.72986111111111196</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>3</v>
+      </c>
+      <c r="B288" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288" s="1">
+        <v>44799</v>
+      </c>
+      <c r="D288" s="2">
+        <v>0.32986111111111099</v>
+      </c>
+      <c r="E288" s="2">
+        <v>0.73194444444444595</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>3</v>
+      </c>
+      <c r="B289" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289" s="1">
+        <v>44800</v>
+      </c>
+      <c r="D289" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="E289" s="2">
+        <v>0.73402777777777894</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>3</v>
+      </c>
+      <c r="B290" t="s">
+        <v>7</v>
+      </c>
+      <c r="C290" s="1">
+        <v>44801</v>
+      </c>
+      <c r="D290" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+      <c r="E290" s="2">
+        <v>0.73611111111111205</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>3</v>
+      </c>
+      <c r="B291" t="s">
+        <v>7</v>
+      </c>
+      <c r="C291" s="1">
+        <v>44802</v>
+      </c>
+      <c r="D291" s="2">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E291" s="2">
+        <v>0.73819444444444604</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>3</v>
+      </c>
+      <c r="B292" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292" s="1">
+        <v>44803</v>
+      </c>
+      <c r="D292" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="E292" s="2">
+        <v>0.74027777777777903</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>3</v>
+      </c>
+      <c r="B293" t="s">
+        <v>7</v>
+      </c>
+      <c r="C293" s="1">
+        <v>44804</v>
+      </c>
+      <c r="D293" s="2">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="E293" s="2">
+        <v>0.74236111111111303</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>3</v>
+      </c>
+      <c r="B294" t="s">
+        <v>7</v>
+      </c>
+      <c r="C294" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D294" s="2">
+        <v>0.31944444444444398</v>
+      </c>
+      <c r="E294" s="2">
+        <v>0.74444444444444602</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>3</v>
+      </c>
+      <c r="B295" t="s">
+        <v>7</v>
+      </c>
+      <c r="C295" s="1">
+        <v>44806</v>
+      </c>
+      <c r="D295" s="2">
+        <v>0.32291666666666702</v>
+      </c>
+      <c r="E295" s="2">
+        <v>0.74652777777778001</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>3</v>
+      </c>
+      <c r="B296" t="s">
+        <v>7</v>
+      </c>
+      <c r="C296" s="1">
+        <v>44807</v>
+      </c>
+      <c r="D296" s="2">
+        <v>0.32638888888888901</v>
+      </c>
+      <c r="E296" s="2">
+        <v>0.748611111111113</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>3</v>
+      </c>
+      <c r="B297" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297" s="1">
+        <v>44808</v>
+      </c>
+      <c r="D297" s="2">
+        <v>0.32986111111111099</v>
+      </c>
+      <c r="E297" s="2">
+        <v>0.750694444444446</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>3</v>
+      </c>
+      <c r="B298" t="s">
+        <v>7</v>
+      </c>
+      <c r="C298" s="1">
+        <v>44809</v>
+      </c>
+      <c r="D298" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="E298" s="2">
+        <v>0.75277777777777999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>3</v>
+      </c>
+      <c r="B299" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299" s="1">
+        <v>44810</v>
+      </c>
+      <c r="D299" s="2">
+        <v>0.33680555555555602</v>
+      </c>
+      <c r="E299" s="2">
+        <v>0.75486111111111298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>3</v>
+      </c>
+      <c r="B300" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300" s="1">
+        <v>44811</v>
+      </c>
+      <c r="D300" s="2">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E300" s="2">
+        <v>0.75694444444444697</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>3</v>
+      </c>
+      <c r="B301" t="s">
+        <v>7</v>
+      </c>
+      <c r="C301" s="1">
+        <v>44812</v>
+      </c>
+      <c r="D301" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="E301" s="2">
+        <v>0.75902777777777997</v>
       </c>
     </row>
   </sheetData>

--- a/tests/2022 - 07 - Attendance Details.xlsx
+++ b/tests/2022 - 07 - Attendance Details.xlsx
@@ -39,13 +39,13 @@
     <t>Person ID</t>
   </si>
   <si>
-    <t>Nur A</t>
-  </si>
-  <si>
     <t>Approve 01</t>
   </si>
   <si>
     <t>User 01</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
 </sst>
 </file>
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J297" sqref="J297"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>44713</v>
@@ -908,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>44714</v>
@@ -925,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>44715</v>
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>44716</v>
@@ -959,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>44717</v>
@@ -976,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>44718</v>
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
         <v>44719</v>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <v>44720</v>
@@ -1027,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>44721</v>
@@ -1044,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
         <v>44722</v>
@@ -1061,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1">
         <v>44723</v>
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1">
         <v>44724</v>
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1">
         <v>44725</v>
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1">
         <v>44726</v>
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1">
         <v>44727</v>
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1">
         <v>44728</v>
@@ -1163,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1">
         <v>44729</v>
@@ -1180,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1">
         <v>44730</v>
@@ -1197,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1">
         <v>44731</v>
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1">
         <v>44732</v>
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1">
         <v>44733</v>
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1">
         <v>44734</v>
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1">
         <v>44735</v>
@@ -1282,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1">
         <v>44736</v>
@@ -1299,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1">
         <v>44737</v>
@@ -1316,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1">
         <v>44738</v>
@@ -1333,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1">
         <v>44739</v>
@@ -1350,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1">
         <v>44740</v>
@@ -1367,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1">
         <v>44741</v>
@@ -1384,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1">
         <v>44742</v>
@@ -1401,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1">
         <v>44743</v>
@@ -1418,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C33" s="1">
         <v>44744</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" s="1">
         <v>44745</v>
@@ -1452,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1">
         <v>44746</v>
@@ -1469,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C36" s="1">
         <v>44747</v>
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37" s="1">
         <v>44748</v>
@@ -1503,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C38" s="1">
         <v>44749</v>
@@ -1520,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C39" s="1">
         <v>44750</v>
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C40" s="1">
         <v>44751</v>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C41" s="1">
         <v>44752</v>
@@ -1571,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42" s="1">
         <v>44753</v>
@@ -1588,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C43" s="1">
         <v>44754</v>
@@ -1605,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C44" s="1">
         <v>44755</v>
@@ -1622,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C45" s="1">
         <v>44756</v>
@@ -1639,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" s="1">
         <v>44757</v>
@@ -1656,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C47" s="1">
         <v>44758</v>
@@ -1673,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C48" s="1">
         <v>44759</v>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C49" s="1">
         <v>44760</v>
@@ -1707,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C50" s="1">
         <v>44761</v>
@@ -1724,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51" s="1">
         <v>44762</v>
@@ -1741,7 +1741,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C52" s="1">
         <v>44763</v>
@@ -1758,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C53" s="1">
         <v>44764</v>
@@ -1775,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C54" s="1">
         <v>44765</v>
@@ -1792,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C55" s="1">
         <v>44766</v>
@@ -1809,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C56" s="1">
         <v>44767</v>
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C57" s="1">
         <v>44768</v>
@@ -1843,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C58" s="1">
         <v>44769</v>
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C59" s="1">
         <v>44770</v>
@@ -1877,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C60" s="1">
         <v>44771</v>
@@ -1894,7 +1894,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C61" s="1">
         <v>44772</v>
@@ -1911,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C62" s="1">
         <v>44773</v>
@@ -1928,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C63" s="1">
         <v>44774</v>
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C64" s="1">
         <v>44775</v>
@@ -1962,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C65" s="1">
         <v>44776</v>
@@ -1979,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C66" s="1">
         <v>44777</v>
@@ -1996,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C67" s="1">
         <v>44778</v>
@@ -2013,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C68" s="1">
         <v>44779</v>
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C69" s="1">
         <v>44780</v>
@@ -2047,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C70" s="1">
         <v>44781</v>
@@ -2064,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C71" s="1">
         <v>44782</v>
@@ -2081,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C72" s="1">
         <v>44783</v>
@@ -2098,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C73" s="1">
         <v>44784</v>
@@ -2115,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C74" s="1">
         <v>44785</v>
@@ -2132,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C75" s="1">
         <v>44786</v>
@@ -2149,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C76" s="1">
         <v>44787</v>
@@ -2166,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C77" s="1">
         <v>44788</v>
@@ -2183,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C78" s="1">
         <v>44789</v>
@@ -2200,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C79" s="1">
         <v>44790</v>
@@ -2217,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C80" s="1">
         <v>44791</v>
@@ -2234,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C81" s="1">
         <v>44792</v>
@@ -2251,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C82" s="1">
         <v>44793</v>
@@ -2268,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C83" s="1">
         <v>44794</v>
@@ -2285,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C84" s="1">
         <v>44795</v>
@@ -2302,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C85" s="1">
         <v>44796</v>
@@ -2319,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C86" s="1">
         <v>44797</v>
@@ -2336,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C87" s="1">
         <v>44798</v>
@@ -2353,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C88" s="1">
         <v>44799</v>
@@ -2370,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C89" s="1">
         <v>44800</v>
@@ -2387,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C90" s="1">
         <v>44801</v>
@@ -2404,7 +2404,7 @@
         <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C91" s="1">
         <v>44802</v>
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C92" s="1">
         <v>44803</v>
@@ -2438,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C93" s="1">
         <v>44804</v>
@@ -2455,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C94" s="1">
         <v>44805</v>
@@ -2472,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C95" s="1">
         <v>44806</v>
@@ -2489,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C96" s="1">
         <v>44807</v>
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C97" s="1">
         <v>44808</v>
@@ -2523,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C98" s="1">
         <v>44809</v>
@@ -2540,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C99" s="1">
         <v>44810</v>
@@ -2557,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C100" s="1">
         <v>44811</v>
@@ -2574,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C101" s="1">
         <v>44812</v>
@@ -2591,7 +2591,7 @@
         <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C102" s="1">
         <v>44713</v>
@@ -2608,7 +2608,7 @@
         <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103" s="1">
         <v>44714</v>
@@ -2625,7 +2625,7 @@
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C104" s="1">
         <v>44715</v>
@@ -2642,7 +2642,7 @@
         <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105" s="1">
         <v>44716</v>
@@ -2659,7 +2659,7 @@
         <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C106" s="1">
         <v>44717</v>
@@ -2676,7 +2676,7 @@
         <v>2</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C107" s="1">
         <v>44718</v>
@@ -2693,7 +2693,7 @@
         <v>2</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C108" s="1">
         <v>44719</v>
@@ -2710,7 +2710,7 @@
         <v>2</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C109" s="1">
         <v>44720</v>
@@ -2727,7 +2727,7 @@
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C110" s="1">
         <v>44721</v>
@@ -2744,7 +2744,7 @@
         <v>2</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C111" s="1">
         <v>44722</v>
@@ -2761,7 +2761,7 @@
         <v>2</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C112" s="1">
         <v>44723</v>
@@ -2778,7 +2778,7 @@
         <v>2</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" s="1">
         <v>44724</v>
@@ -2795,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" s="1">
         <v>44725</v>
@@ -2812,7 +2812,7 @@
         <v>2</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115" s="1">
         <v>44726</v>
@@ -2829,7 +2829,7 @@
         <v>2</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" s="1">
         <v>44727</v>
@@ -2846,7 +2846,7 @@
         <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" s="1">
         <v>44728</v>
@@ -2863,7 +2863,7 @@
         <v>2</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" s="1">
         <v>44729</v>
@@ -2880,7 +2880,7 @@
         <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C119" s="1">
         <v>44730</v>
@@ -2897,7 +2897,7 @@
         <v>2</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120" s="1">
         <v>44731</v>
@@ -2914,7 +2914,7 @@
         <v>2</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" s="1">
         <v>44732</v>
@@ -2931,7 +2931,7 @@
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C122" s="1">
         <v>44733</v>
@@ -2948,7 +2948,7 @@
         <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C123" s="1">
         <v>44734</v>
@@ -2965,7 +2965,7 @@
         <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C124" s="1">
         <v>44735</v>
@@ -2982,7 +2982,7 @@
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125" s="1">
         <v>44736</v>
@@ -2999,7 +2999,7 @@
         <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C126" s="1">
         <v>44737</v>
@@ -3016,7 +3016,7 @@
         <v>2</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C127" s="1">
         <v>44738</v>
@@ -3033,7 +3033,7 @@
         <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C128" s="1">
         <v>44739</v>
@@ -3050,7 +3050,7 @@
         <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C129" s="1">
         <v>44740</v>
@@ -3067,7 +3067,7 @@
         <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C130" s="1">
         <v>44741</v>
@@ -3084,7 +3084,7 @@
         <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131" s="1">
         <v>44742</v>
@@ -3101,7 +3101,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C132" s="1">
         <v>44743</v>
@@ -3118,7 +3118,7 @@
         <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C133" s="1">
         <v>44744</v>
@@ -3135,7 +3135,7 @@
         <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C134" s="1">
         <v>44745</v>
@@ -3152,7 +3152,7 @@
         <v>2</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C135" s="1">
         <v>44746</v>
@@ -3169,7 +3169,7 @@
         <v>2</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C136" s="1">
         <v>44747</v>
@@ -3186,7 +3186,7 @@
         <v>2</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C137" s="1">
         <v>44748</v>
@@ -3203,7 +3203,7 @@
         <v>2</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C138" s="1">
         <v>44749</v>
@@ -3220,7 +3220,7 @@
         <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C139" s="1">
         <v>44750</v>
@@ -3237,7 +3237,7 @@
         <v>2</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C140" s="1">
         <v>44751</v>
@@ -3254,7 +3254,7 @@
         <v>2</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C141" s="1">
         <v>44752</v>
@@ -3271,7 +3271,7 @@
         <v>2</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C142" s="1">
         <v>44753</v>
@@ -3288,7 +3288,7 @@
         <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C143" s="1">
         <v>44754</v>
@@ -3305,7 +3305,7 @@
         <v>2</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C144" s="1">
         <v>44755</v>
@@ -3322,7 +3322,7 @@
         <v>2</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C145" s="1">
         <v>44756</v>
@@ -3339,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C146" s="1">
         <v>44757</v>
@@ -3356,7 +3356,7 @@
         <v>2</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C147" s="1">
         <v>44758</v>
@@ -3373,7 +3373,7 @@
         <v>2</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C148" s="1">
         <v>44759</v>
@@ -3390,7 +3390,7 @@
         <v>2</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C149" s="1">
         <v>44760</v>
@@ -3407,7 +3407,7 @@
         <v>2</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C150" s="1">
         <v>44761</v>
@@ -3424,7 +3424,7 @@
         <v>2</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C151" s="1">
         <v>44762</v>
@@ -3441,7 +3441,7 @@
         <v>2</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C152" s="1">
         <v>44763</v>
@@ -3458,7 +3458,7 @@
         <v>2</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C153" s="1">
         <v>44764</v>
@@ -3475,7 +3475,7 @@
         <v>2</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C154" s="1">
         <v>44765</v>
@@ -3492,7 +3492,7 @@
         <v>2</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C155" s="1">
         <v>44766</v>
@@ -3509,7 +3509,7 @@
         <v>2</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C156" s="1">
         <v>44767</v>
@@ -3526,7 +3526,7 @@
         <v>2</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C157" s="1">
         <v>44768</v>
@@ -3543,7 +3543,7 @@
         <v>2</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C158" s="1">
         <v>44769</v>
@@ -3560,7 +3560,7 @@
         <v>2</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C159" s="1">
         <v>44770</v>
@@ -3577,7 +3577,7 @@
         <v>2</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C160" s="1">
         <v>44771</v>
@@ -3594,7 +3594,7 @@
         <v>2</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C161" s="1">
         <v>44772</v>
@@ -3611,7 +3611,7 @@
         <v>2</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C162" s="1">
         <v>44773</v>
@@ -3628,7 +3628,7 @@
         <v>2</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C163" s="1">
         <v>44774</v>
@@ -3645,7 +3645,7 @@
         <v>2</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C164" s="1">
         <v>44775</v>
@@ -3662,7 +3662,7 @@
         <v>2</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C165" s="1">
         <v>44776</v>
@@ -3679,7 +3679,7 @@
         <v>2</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C166" s="1">
         <v>44777</v>
@@ -3696,7 +3696,7 @@
         <v>2</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C167" s="1">
         <v>44778</v>
@@ -3713,7 +3713,7 @@
         <v>2</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C168" s="1">
         <v>44779</v>
@@ -3730,7 +3730,7 @@
         <v>2</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C169" s="1">
         <v>44780</v>
@@ -3747,7 +3747,7 @@
         <v>2</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C170" s="1">
         <v>44781</v>
@@ -3764,7 +3764,7 @@
         <v>2</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C171" s="1">
         <v>44782</v>
@@ -3781,7 +3781,7 @@
         <v>2</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C172" s="1">
         <v>44783</v>
@@ -3798,7 +3798,7 @@
         <v>2</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C173" s="1">
         <v>44784</v>
@@ -3815,7 +3815,7 @@
         <v>2</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C174" s="1">
         <v>44785</v>
@@ -3832,7 +3832,7 @@
         <v>2</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C175" s="1">
         <v>44786</v>
@@ -3849,7 +3849,7 @@
         <v>2</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C176" s="1">
         <v>44787</v>
@@ -3866,7 +3866,7 @@
         <v>2</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C177" s="1">
         <v>44788</v>
@@ -3883,7 +3883,7 @@
         <v>2</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C178" s="1">
         <v>44789</v>
@@ -3900,7 +3900,7 @@
         <v>2</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C179" s="1">
         <v>44790</v>
@@ -3917,7 +3917,7 @@
         <v>2</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C180" s="1">
         <v>44791</v>
@@ -3934,7 +3934,7 @@
         <v>2</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C181" s="1">
         <v>44792</v>
@@ -3951,7 +3951,7 @@
         <v>2</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C182" s="1">
         <v>44793</v>
@@ -3968,7 +3968,7 @@
         <v>2</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C183" s="1">
         <v>44794</v>
@@ -3985,7 +3985,7 @@
         <v>2</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C184" s="1">
         <v>44795</v>
@@ -4002,7 +4002,7 @@
         <v>2</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C185" s="1">
         <v>44796</v>
@@ -4019,7 +4019,7 @@
         <v>2</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C186" s="1">
         <v>44797</v>
@@ -4036,7 +4036,7 @@
         <v>2</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C187" s="1">
         <v>44798</v>
@@ -4053,7 +4053,7 @@
         <v>2</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C188" s="1">
         <v>44799</v>
@@ -4070,7 +4070,7 @@
         <v>2</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C189" s="1">
         <v>44800</v>
@@ -4087,7 +4087,7 @@
         <v>2</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C190" s="1">
         <v>44801</v>
@@ -4104,7 +4104,7 @@
         <v>2</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C191" s="1">
         <v>44802</v>
@@ -4121,7 +4121,7 @@
         <v>2</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C192" s="1">
         <v>44803</v>
@@ -4138,7 +4138,7 @@
         <v>2</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C193" s="1">
         <v>44804</v>
@@ -4155,7 +4155,7 @@
         <v>2</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C194" s="1">
         <v>44805</v>
@@ -4172,7 +4172,7 @@
         <v>2</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C195" s="1">
         <v>44806</v>
@@ -4189,7 +4189,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C196" s="1">
         <v>44807</v>
@@ -4206,7 +4206,7 @@
         <v>2</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C197" s="1">
         <v>44808</v>
@@ -4223,7 +4223,7 @@
         <v>2</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C198" s="1">
         <v>44809</v>
@@ -4240,7 +4240,7 @@
         <v>2</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C199" s="1">
         <v>44810</v>
@@ -4257,7 +4257,7 @@
         <v>2</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C200" s="1">
         <v>44811</v>
@@ -4274,7 +4274,7 @@
         <v>2</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C201" s="1">
         <v>44812</v>
@@ -4291,7 +4291,7 @@
         <v>3</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C202" s="1">
         <v>44713</v>
@@ -4308,7 +4308,7 @@
         <v>3</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C203" s="1">
         <v>44714</v>
@@ -4325,7 +4325,7 @@
         <v>3</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C204" s="1">
         <v>44715</v>
@@ -4342,7 +4342,7 @@
         <v>3</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C205" s="1">
         <v>44716</v>
@@ -4359,7 +4359,7 @@
         <v>3</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206" s="1">
         <v>44717</v>
@@ -4376,7 +4376,7 @@
         <v>3</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C207" s="1">
         <v>44718</v>
@@ -4393,7 +4393,7 @@
         <v>3</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C208" s="1">
         <v>44719</v>
@@ -4410,7 +4410,7 @@
         <v>3</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C209" s="1">
         <v>44720</v>
@@ -4427,7 +4427,7 @@
         <v>3</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C210" s="1">
         <v>44721</v>
@@ -4444,7 +4444,7 @@
         <v>3</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C211" s="1">
         <v>44722</v>
@@ -4461,7 +4461,7 @@
         <v>3</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C212" s="1">
         <v>44723</v>
@@ -4478,7 +4478,7 @@
         <v>3</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C213" s="1">
         <v>44724</v>
@@ -4495,7 +4495,7 @@
         <v>3</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C214" s="1">
         <v>44725</v>
@@ -4512,7 +4512,7 @@
         <v>3</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C215" s="1">
         <v>44726</v>
@@ -4529,7 +4529,7 @@
         <v>3</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C216" s="1">
         <v>44727</v>
@@ -4546,7 +4546,7 @@
         <v>3</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C217" s="1">
         <v>44728</v>
@@ -4563,7 +4563,7 @@
         <v>3</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C218" s="1">
         <v>44729</v>
@@ -4580,7 +4580,7 @@
         <v>3</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C219" s="1">
         <v>44730</v>
@@ -4597,7 +4597,7 @@
         <v>3</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C220" s="1">
         <v>44731</v>
@@ -4614,7 +4614,7 @@
         <v>3</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C221" s="1">
         <v>44732</v>
@@ -4631,7 +4631,7 @@
         <v>3</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C222" s="1">
         <v>44733</v>
@@ -4648,7 +4648,7 @@
         <v>3</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C223" s="1">
         <v>44734</v>
@@ -4665,7 +4665,7 @@
         <v>3</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C224" s="1">
         <v>44735</v>
@@ -4682,7 +4682,7 @@
         <v>3</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C225" s="1">
         <v>44736</v>
@@ -4699,7 +4699,7 @@
         <v>3</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C226" s="1">
         <v>44737</v>
@@ -4716,7 +4716,7 @@
         <v>3</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C227" s="1">
         <v>44738</v>
@@ -4733,7 +4733,7 @@
         <v>3</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C228" s="1">
         <v>44739</v>
@@ -4750,7 +4750,7 @@
         <v>3</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C229" s="1">
         <v>44740</v>
@@ -4767,7 +4767,7 @@
         <v>3</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C230" s="1">
         <v>44741</v>
@@ -4784,7 +4784,7 @@
         <v>3</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C231" s="1">
         <v>44742</v>
@@ -4801,7 +4801,7 @@
         <v>3</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C232" s="1">
         <v>44743</v>
@@ -4818,7 +4818,7 @@
         <v>3</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C233" s="1">
         <v>44744</v>
@@ -4835,7 +4835,7 @@
         <v>3</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C234" s="1">
         <v>44745</v>
@@ -4852,7 +4852,7 @@
         <v>3</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C235" s="1">
         <v>44746</v>
@@ -4869,7 +4869,7 @@
         <v>3</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C236" s="1">
         <v>44747</v>
@@ -4886,7 +4886,7 @@
         <v>3</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C237" s="1">
         <v>44748</v>
@@ -4903,7 +4903,7 @@
         <v>3</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C238" s="1">
         <v>44749</v>
@@ -4920,7 +4920,7 @@
         <v>3</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C239" s="1">
         <v>44750</v>
@@ -4937,7 +4937,7 @@
         <v>3</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C240" s="1">
         <v>44751</v>
@@ -4954,7 +4954,7 @@
         <v>3</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C241" s="1">
         <v>44752</v>
@@ -4971,7 +4971,7 @@
         <v>3</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C242" s="1">
         <v>44753</v>
@@ -4988,7 +4988,7 @@
         <v>3</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C243" s="1">
         <v>44754</v>
@@ -5005,7 +5005,7 @@
         <v>3</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C244" s="1">
         <v>44755</v>
@@ -5022,7 +5022,7 @@
         <v>3</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C245" s="1">
         <v>44756</v>
@@ -5039,7 +5039,7 @@
         <v>3</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C246" s="1">
         <v>44757</v>
@@ -5056,7 +5056,7 @@
         <v>3</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C247" s="1">
         <v>44758</v>
@@ -5073,7 +5073,7 @@
         <v>3</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C248" s="1">
         <v>44759</v>
@@ -5090,7 +5090,7 @@
         <v>3</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C249" s="1">
         <v>44760</v>
@@ -5107,7 +5107,7 @@
         <v>3</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C250" s="1">
         <v>44761</v>
@@ -5124,7 +5124,7 @@
         <v>3</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C251" s="1">
         <v>44762</v>
@@ -5141,7 +5141,7 @@
         <v>3</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C252" s="1">
         <v>44763</v>
@@ -5158,7 +5158,7 @@
         <v>3</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C253" s="1">
         <v>44764</v>
@@ -5175,7 +5175,7 @@
         <v>3</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C254" s="1">
         <v>44765</v>
@@ -5192,7 +5192,7 @@
         <v>3</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C255" s="1">
         <v>44766</v>
@@ -5209,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C256" s="1">
         <v>44767</v>
@@ -5226,7 +5226,7 @@
         <v>3</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C257" s="1">
         <v>44768</v>
@@ -5243,7 +5243,7 @@
         <v>3</v>
       </c>
       <c r="B258" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C258" s="1">
         <v>44769</v>
@@ -5260,7 +5260,7 @@
         <v>3</v>
       </c>
       <c r="B259" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C259" s="1">
         <v>44770</v>
@@ -5277,7 +5277,7 @@
         <v>3</v>
       </c>
       <c r="B260" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C260" s="1">
         <v>44771</v>
@@ -5294,7 +5294,7 @@
         <v>3</v>
       </c>
       <c r="B261" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C261" s="1">
         <v>44772</v>
@@ -5311,7 +5311,7 @@
         <v>3</v>
       </c>
       <c r="B262" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C262" s="1">
         <v>44773</v>
@@ -5328,7 +5328,7 @@
         <v>3</v>
       </c>
       <c r="B263" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C263" s="1">
         <v>44774</v>
@@ -5345,7 +5345,7 @@
         <v>3</v>
       </c>
       <c r="B264" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C264" s="1">
         <v>44775</v>
@@ -5362,7 +5362,7 @@
         <v>3</v>
       </c>
       <c r="B265" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C265" s="1">
         <v>44776</v>
@@ -5379,7 +5379,7 @@
         <v>3</v>
       </c>
       <c r="B266" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C266" s="1">
         <v>44777</v>
@@ -5396,7 +5396,7 @@
         <v>3</v>
       </c>
       <c r="B267" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C267" s="1">
         <v>44778</v>
@@ -5413,7 +5413,7 @@
         <v>3</v>
       </c>
       <c r="B268" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C268" s="1">
         <v>44779</v>
@@ -5430,7 +5430,7 @@
         <v>3</v>
       </c>
       <c r="B269" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C269" s="1">
         <v>44780</v>
@@ -5447,7 +5447,7 @@
         <v>3</v>
       </c>
       <c r="B270" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C270" s="1">
         <v>44781</v>
@@ -5464,7 +5464,7 @@
         <v>3</v>
       </c>
       <c r="B271" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C271" s="1">
         <v>44782</v>
@@ -5481,7 +5481,7 @@
         <v>3</v>
       </c>
       <c r="B272" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C272" s="1">
         <v>44783</v>
@@ -5498,7 +5498,7 @@
         <v>3</v>
       </c>
       <c r="B273" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C273" s="1">
         <v>44784</v>
@@ -5515,7 +5515,7 @@
         <v>3</v>
       </c>
       <c r="B274" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C274" s="1">
         <v>44785</v>
@@ -5532,7 +5532,7 @@
         <v>3</v>
       </c>
       <c r="B275" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C275" s="1">
         <v>44786</v>
@@ -5549,7 +5549,7 @@
         <v>3</v>
       </c>
       <c r="B276" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C276" s="1">
         <v>44787</v>
@@ -5566,7 +5566,7 @@
         <v>3</v>
       </c>
       <c r="B277" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C277" s="1">
         <v>44788</v>
@@ -5583,7 +5583,7 @@
         <v>3</v>
       </c>
       <c r="B278" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C278" s="1">
         <v>44789</v>
@@ -5600,7 +5600,7 @@
         <v>3</v>
       </c>
       <c r="B279" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C279" s="1">
         <v>44790</v>
@@ -5617,7 +5617,7 @@
         <v>3</v>
       </c>
       <c r="B280" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C280" s="1">
         <v>44791</v>
@@ -5634,7 +5634,7 @@
         <v>3</v>
       </c>
       <c r="B281" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C281" s="1">
         <v>44792</v>
@@ -5651,7 +5651,7 @@
         <v>3</v>
       </c>
       <c r="B282" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C282" s="1">
         <v>44793</v>
@@ -5668,7 +5668,7 @@
         <v>3</v>
       </c>
       <c r="B283" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C283" s="1">
         <v>44794</v>
@@ -5685,7 +5685,7 @@
         <v>3</v>
       </c>
       <c r="B284" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C284" s="1">
         <v>44795</v>
@@ -5702,7 +5702,7 @@
         <v>3</v>
       </c>
       <c r="B285" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C285" s="1">
         <v>44796</v>
@@ -5719,7 +5719,7 @@
         <v>3</v>
       </c>
       <c r="B286" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C286" s="1">
         <v>44797</v>
@@ -5736,7 +5736,7 @@
         <v>3</v>
       </c>
       <c r="B287" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C287" s="1">
         <v>44798</v>
@@ -5753,7 +5753,7 @@
         <v>3</v>
       </c>
       <c r="B288" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C288" s="1">
         <v>44799</v>
@@ -5770,7 +5770,7 @@
         <v>3</v>
       </c>
       <c r="B289" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C289" s="1">
         <v>44800</v>
@@ -5787,7 +5787,7 @@
         <v>3</v>
       </c>
       <c r="B290" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C290" s="1">
         <v>44801</v>
@@ -5804,7 +5804,7 @@
         <v>3</v>
       </c>
       <c r="B291" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C291" s="1">
         <v>44802</v>
@@ -5821,7 +5821,7 @@
         <v>3</v>
       </c>
       <c r="B292" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C292" s="1">
         <v>44803</v>
@@ -5838,7 +5838,7 @@
         <v>3</v>
       </c>
       <c r="B293" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C293" s="1">
         <v>44804</v>
@@ -5855,7 +5855,7 @@
         <v>3</v>
       </c>
       <c r="B294" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C294" s="1">
         <v>44805</v>
@@ -5872,7 +5872,7 @@
         <v>3</v>
       </c>
       <c r="B295" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C295" s="1">
         <v>44806</v>
@@ -5889,7 +5889,7 @@
         <v>3</v>
       </c>
       <c r="B296" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C296" s="1">
         <v>44807</v>
@@ -5906,7 +5906,7 @@
         <v>3</v>
       </c>
       <c r="B297" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C297" s="1">
         <v>44808</v>
@@ -5923,7 +5923,7 @@
         <v>3</v>
       </c>
       <c r="B298" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C298" s="1">
         <v>44809</v>
@@ -5940,7 +5940,7 @@
         <v>3</v>
       </c>
       <c r="B299" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C299" s="1">
         <v>44810</v>
@@ -5957,7 +5957,7 @@
         <v>3</v>
       </c>
       <c r="B300" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C300" s="1">
         <v>44811</v>
@@ -5974,7 +5974,7 @@
         <v>3</v>
       </c>
       <c r="B301" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C301" s="1">
         <v>44812</v>

--- a/tests/2022 - 07 - Attendance Details.xlsx
+++ b/tests/2022 - 07 - Attendance Details.xlsx
@@ -30,12 +30,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Chek In</t>
-  </si>
-  <si>
-    <t>Chek Out</t>
-  </si>
-  <si>
     <t>Person ID</t>
   </si>
   <si>
@@ -46,6 +40,12 @@
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>Check In</t>
+  </si>
+  <si>
+    <t>Check Out</t>
   </si>
 </sst>
 </file>
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,7 +871,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -891,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>44713</v>
@@ -908,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>44714</v>
@@ -925,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>44715</v>
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>44716</v>
@@ -959,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>44717</v>
@@ -976,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>44718</v>
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>44719</v>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>44720</v>
@@ -1027,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>44721</v>
@@ -1044,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
         <v>44722</v>
@@ -1061,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
         <v>44723</v>
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
         <v>44724</v>
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
         <v>44725</v>
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1">
         <v>44726</v>
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1">
         <v>44727</v>
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1">
         <v>44728</v>
@@ -1163,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1">
         <v>44729</v>
@@ -1180,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1">
         <v>44730</v>
@@ -1197,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1">
         <v>44731</v>
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1">
         <v>44732</v>
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1">
         <v>44733</v>
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1">
         <v>44734</v>
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1">
         <v>44735</v>
@@ -1282,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1">
         <v>44736</v>
@@ -1299,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1">
         <v>44737</v>
@@ -1316,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27" s="1">
         <v>44738</v>
@@ -1333,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1">
         <v>44739</v>
@@ -1350,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29" s="1">
         <v>44740</v>
@@ -1367,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1">
         <v>44741</v>
@@ -1384,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1">
         <v>44742</v>
@@ -1401,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1">
         <v>44743</v>
@@ -1418,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1">
         <v>44744</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1">
         <v>44745</v>
@@ -1452,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1">
         <v>44746</v>
@@ -1469,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36" s="1">
         <v>44747</v>
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" s="1">
         <v>44748</v>
@@ -1503,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1">
         <v>44749</v>
@@ -1520,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C39" s="1">
         <v>44750</v>
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C40" s="1">
         <v>44751</v>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C41" s="1">
         <v>44752</v>
@@ -1571,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42" s="1">
         <v>44753</v>
@@ -1588,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43" s="1">
         <v>44754</v>
@@ -1605,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C44" s="1">
         <v>44755</v>
@@ -1622,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C45" s="1">
         <v>44756</v>
@@ -1639,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" s="1">
         <v>44757</v>
@@ -1656,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1">
         <v>44758</v>
@@ -1673,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48" s="1">
         <v>44759</v>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49" s="1">
         <v>44760</v>
@@ -1707,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50" s="1">
         <v>44761</v>
@@ -1724,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51" s="1">
         <v>44762</v>
@@ -1741,7 +1741,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C52" s="1">
         <v>44763</v>
@@ -1758,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C53" s="1">
         <v>44764</v>
@@ -1775,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" s="1">
         <v>44765</v>
@@ -1792,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C55" s="1">
         <v>44766</v>
@@ -1809,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56" s="1">
         <v>44767</v>
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57" s="1">
         <v>44768</v>
@@ -1843,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58" s="1">
         <v>44769</v>
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59" s="1">
         <v>44770</v>
@@ -1877,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C60" s="1">
         <v>44771</v>
@@ -1894,7 +1894,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C61" s="1">
         <v>44772</v>
@@ -1911,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C62" s="1">
         <v>44773</v>
@@ -1928,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C63" s="1">
         <v>44774</v>
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C64" s="1">
         <v>44775</v>
@@ -1962,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C65" s="1">
         <v>44776</v>
@@ -1979,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C66" s="1">
         <v>44777</v>
@@ -1996,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C67" s="1">
         <v>44778</v>
@@ -2013,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C68" s="1">
         <v>44779</v>
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C69" s="1">
         <v>44780</v>
@@ -2047,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C70" s="1">
         <v>44781</v>
@@ -2064,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C71" s="1">
         <v>44782</v>
@@ -2081,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72" s="1">
         <v>44783</v>
@@ -2098,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C73" s="1">
         <v>44784</v>
@@ -2115,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C74" s="1">
         <v>44785</v>
@@ -2132,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C75" s="1">
         <v>44786</v>
@@ -2149,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C76" s="1">
         <v>44787</v>
@@ -2166,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C77" s="1">
         <v>44788</v>
@@ -2183,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C78" s="1">
         <v>44789</v>
@@ -2200,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C79" s="1">
         <v>44790</v>
@@ -2217,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C80" s="1">
         <v>44791</v>
@@ -2234,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C81" s="1">
         <v>44792</v>
@@ -2251,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C82" s="1">
         <v>44793</v>
@@ -2268,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C83" s="1">
         <v>44794</v>
@@ -2285,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C84" s="1">
         <v>44795</v>
@@ -2302,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C85" s="1">
         <v>44796</v>
@@ -2319,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C86" s="1">
         <v>44797</v>
@@ -2336,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C87" s="1">
         <v>44798</v>
@@ -2353,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C88" s="1">
         <v>44799</v>
@@ -2370,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C89" s="1">
         <v>44800</v>
@@ -2387,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C90" s="1">
         <v>44801</v>
@@ -2404,7 +2404,7 @@
         <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C91" s="1">
         <v>44802</v>
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C92" s="1">
         <v>44803</v>
@@ -2438,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C93" s="1">
         <v>44804</v>
@@ -2455,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" s="1">
         <v>44805</v>
@@ -2472,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95" s="1">
         <v>44806</v>
@@ -2489,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C96" s="1">
         <v>44807</v>
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C97" s="1">
         <v>44808</v>
@@ -2523,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C98" s="1">
         <v>44809</v>
@@ -2540,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C99" s="1">
         <v>44810</v>
@@ -2557,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C100" s="1">
         <v>44811</v>
@@ -2574,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C101" s="1">
         <v>44812</v>
@@ -2591,7 +2591,7 @@
         <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C102" s="1">
         <v>44713</v>
@@ -2608,7 +2608,7 @@
         <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C103" s="1">
         <v>44714</v>
@@ -2625,7 +2625,7 @@
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C104" s="1">
         <v>44715</v>
@@ -2642,7 +2642,7 @@
         <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C105" s="1">
         <v>44716</v>
@@ -2659,7 +2659,7 @@
         <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C106" s="1">
         <v>44717</v>
@@ -2676,7 +2676,7 @@
         <v>2</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C107" s="1">
         <v>44718</v>
@@ -2693,7 +2693,7 @@
         <v>2</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C108" s="1">
         <v>44719</v>
@@ -2710,7 +2710,7 @@
         <v>2</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C109" s="1">
         <v>44720</v>
@@ -2727,7 +2727,7 @@
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C110" s="1">
         <v>44721</v>
@@ -2744,7 +2744,7 @@
         <v>2</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C111" s="1">
         <v>44722</v>
@@ -2761,7 +2761,7 @@
         <v>2</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C112" s="1">
         <v>44723</v>
@@ -2778,7 +2778,7 @@
         <v>2</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C113" s="1">
         <v>44724</v>
@@ -2795,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C114" s="1">
         <v>44725</v>
@@ -2812,7 +2812,7 @@
         <v>2</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C115" s="1">
         <v>44726</v>
@@ -2829,7 +2829,7 @@
         <v>2</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C116" s="1">
         <v>44727</v>
@@ -2846,7 +2846,7 @@
         <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C117" s="1">
         <v>44728</v>
@@ -2863,7 +2863,7 @@
         <v>2</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C118" s="1">
         <v>44729</v>
@@ -2880,7 +2880,7 @@
         <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C119" s="1">
         <v>44730</v>
@@ -2897,7 +2897,7 @@
         <v>2</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C120" s="1">
         <v>44731</v>
@@ -2914,7 +2914,7 @@
         <v>2</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C121" s="1">
         <v>44732</v>
@@ -2931,7 +2931,7 @@
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C122" s="1">
         <v>44733</v>
@@ -2948,7 +2948,7 @@
         <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C123" s="1">
         <v>44734</v>
@@ -2965,7 +2965,7 @@
         <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C124" s="1">
         <v>44735</v>
@@ -2982,7 +2982,7 @@
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C125" s="1">
         <v>44736</v>
@@ -2999,7 +2999,7 @@
         <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C126" s="1">
         <v>44737</v>
@@ -3016,7 +3016,7 @@
         <v>2</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C127" s="1">
         <v>44738</v>
@@ -3033,7 +3033,7 @@
         <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C128" s="1">
         <v>44739</v>
@@ -3050,7 +3050,7 @@
         <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C129" s="1">
         <v>44740</v>
@@ -3067,7 +3067,7 @@
         <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C130" s="1">
         <v>44741</v>
@@ -3084,7 +3084,7 @@
         <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C131" s="1">
         <v>44742</v>
@@ -3101,7 +3101,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C132" s="1">
         <v>44743</v>
@@ -3118,7 +3118,7 @@
         <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C133" s="1">
         <v>44744</v>
@@ -3135,7 +3135,7 @@
         <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C134" s="1">
         <v>44745</v>
@@ -3152,7 +3152,7 @@
         <v>2</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C135" s="1">
         <v>44746</v>
@@ -3169,7 +3169,7 @@
         <v>2</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C136" s="1">
         <v>44747</v>
@@ -3186,7 +3186,7 @@
         <v>2</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C137" s="1">
         <v>44748</v>
@@ -3203,7 +3203,7 @@
         <v>2</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C138" s="1">
         <v>44749</v>
@@ -3220,7 +3220,7 @@
         <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C139" s="1">
         <v>44750</v>
@@ -3237,7 +3237,7 @@
         <v>2</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C140" s="1">
         <v>44751</v>
@@ -3254,7 +3254,7 @@
         <v>2</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C141" s="1">
         <v>44752</v>
@@ -3271,7 +3271,7 @@
         <v>2</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C142" s="1">
         <v>44753</v>
@@ -3288,7 +3288,7 @@
         <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C143" s="1">
         <v>44754</v>
@@ -3305,7 +3305,7 @@
         <v>2</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C144" s="1">
         <v>44755</v>
@@ -3322,7 +3322,7 @@
         <v>2</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C145" s="1">
         <v>44756</v>
@@ -3339,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C146" s="1">
         <v>44757</v>
@@ -3356,7 +3356,7 @@
         <v>2</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C147" s="1">
         <v>44758</v>
@@ -3373,7 +3373,7 @@
         <v>2</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C148" s="1">
         <v>44759</v>
@@ -3390,7 +3390,7 @@
         <v>2</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C149" s="1">
         <v>44760</v>
@@ -3407,7 +3407,7 @@
         <v>2</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C150" s="1">
         <v>44761</v>
@@ -3424,7 +3424,7 @@
         <v>2</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C151" s="1">
         <v>44762</v>
@@ -3441,7 +3441,7 @@
         <v>2</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C152" s="1">
         <v>44763</v>
@@ -3458,7 +3458,7 @@
         <v>2</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C153" s="1">
         <v>44764</v>
@@ -3475,7 +3475,7 @@
         <v>2</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C154" s="1">
         <v>44765</v>
@@ -3492,7 +3492,7 @@
         <v>2</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C155" s="1">
         <v>44766</v>
@@ -3509,7 +3509,7 @@
         <v>2</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C156" s="1">
         <v>44767</v>
@@ -3526,7 +3526,7 @@
         <v>2</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C157" s="1">
         <v>44768</v>
@@ -3543,7 +3543,7 @@
         <v>2</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C158" s="1">
         <v>44769</v>
@@ -3560,7 +3560,7 @@
         <v>2</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C159" s="1">
         <v>44770</v>
@@ -3577,7 +3577,7 @@
         <v>2</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C160" s="1">
         <v>44771</v>
@@ -3594,7 +3594,7 @@
         <v>2</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C161" s="1">
         <v>44772</v>
@@ -3611,7 +3611,7 @@
         <v>2</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C162" s="1">
         <v>44773</v>
@@ -3628,7 +3628,7 @@
         <v>2</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C163" s="1">
         <v>44774</v>
@@ -3645,7 +3645,7 @@
         <v>2</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C164" s="1">
         <v>44775</v>
@@ -3662,7 +3662,7 @@
         <v>2</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C165" s="1">
         <v>44776</v>
@@ -3679,7 +3679,7 @@
         <v>2</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C166" s="1">
         <v>44777</v>
@@ -3696,7 +3696,7 @@
         <v>2</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C167" s="1">
         <v>44778</v>
@@ -3713,7 +3713,7 @@
         <v>2</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C168" s="1">
         <v>44779</v>
@@ -3730,7 +3730,7 @@
         <v>2</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C169" s="1">
         <v>44780</v>
@@ -3747,7 +3747,7 @@
         <v>2</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C170" s="1">
         <v>44781</v>
@@ -3764,7 +3764,7 @@
         <v>2</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C171" s="1">
         <v>44782</v>
@@ -3781,7 +3781,7 @@
         <v>2</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C172" s="1">
         <v>44783</v>
@@ -3798,7 +3798,7 @@
         <v>2</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C173" s="1">
         <v>44784</v>
@@ -3815,7 +3815,7 @@
         <v>2</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C174" s="1">
         <v>44785</v>
@@ -3832,7 +3832,7 @@
         <v>2</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C175" s="1">
         <v>44786</v>
@@ -3849,7 +3849,7 @@
         <v>2</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C176" s="1">
         <v>44787</v>
@@ -3866,7 +3866,7 @@
         <v>2</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C177" s="1">
         <v>44788</v>
@@ -3883,7 +3883,7 @@
         <v>2</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C178" s="1">
         <v>44789</v>
@@ -3900,7 +3900,7 @@
         <v>2</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C179" s="1">
         <v>44790</v>
@@ -3917,7 +3917,7 @@
         <v>2</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C180" s="1">
         <v>44791</v>
@@ -3934,7 +3934,7 @@
         <v>2</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C181" s="1">
         <v>44792</v>
@@ -3951,7 +3951,7 @@
         <v>2</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C182" s="1">
         <v>44793</v>
@@ -3968,7 +3968,7 @@
         <v>2</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C183" s="1">
         <v>44794</v>
@@ -3985,7 +3985,7 @@
         <v>2</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C184" s="1">
         <v>44795</v>
@@ -4002,7 +4002,7 @@
         <v>2</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C185" s="1">
         <v>44796</v>
@@ -4019,7 +4019,7 @@
         <v>2</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C186" s="1">
         <v>44797</v>
@@ -4036,7 +4036,7 @@
         <v>2</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C187" s="1">
         <v>44798</v>
@@ -4053,7 +4053,7 @@
         <v>2</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C188" s="1">
         <v>44799</v>
@@ -4070,7 +4070,7 @@
         <v>2</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C189" s="1">
         <v>44800</v>
@@ -4087,7 +4087,7 @@
         <v>2</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C190" s="1">
         <v>44801</v>
@@ -4104,7 +4104,7 @@
         <v>2</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C191" s="1">
         <v>44802</v>
@@ -4121,7 +4121,7 @@
         <v>2</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C192" s="1">
         <v>44803</v>
@@ -4138,7 +4138,7 @@
         <v>2</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C193" s="1">
         <v>44804</v>
@@ -4155,7 +4155,7 @@
         <v>2</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C194" s="1">
         <v>44805</v>
@@ -4172,7 +4172,7 @@
         <v>2</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C195" s="1">
         <v>44806</v>
@@ -4189,7 +4189,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C196" s="1">
         <v>44807</v>
@@ -4206,7 +4206,7 @@
         <v>2</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C197" s="1">
         <v>44808</v>
@@ -4223,7 +4223,7 @@
         <v>2</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C198" s="1">
         <v>44809</v>
@@ -4240,7 +4240,7 @@
         <v>2</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C199" s="1">
         <v>44810</v>
@@ -4257,7 +4257,7 @@
         <v>2</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C200" s="1">
         <v>44811</v>
@@ -4274,7 +4274,7 @@
         <v>2</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C201" s="1">
         <v>44812</v>
@@ -4291,7 +4291,7 @@
         <v>3</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C202" s="1">
         <v>44713</v>
@@ -4308,7 +4308,7 @@
         <v>3</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C203" s="1">
         <v>44714</v>
@@ -4325,7 +4325,7 @@
         <v>3</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C204" s="1">
         <v>44715</v>
@@ -4342,7 +4342,7 @@
         <v>3</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C205" s="1">
         <v>44716</v>
@@ -4359,7 +4359,7 @@
         <v>3</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C206" s="1">
         <v>44717</v>
@@ -4376,7 +4376,7 @@
         <v>3</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C207" s="1">
         <v>44718</v>
@@ -4393,7 +4393,7 @@
         <v>3</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C208" s="1">
         <v>44719</v>
@@ -4410,7 +4410,7 @@
         <v>3</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C209" s="1">
         <v>44720</v>
@@ -4427,7 +4427,7 @@
         <v>3</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C210" s="1">
         <v>44721</v>
@@ -4444,7 +4444,7 @@
         <v>3</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C211" s="1">
         <v>44722</v>
@@ -4461,7 +4461,7 @@
         <v>3</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C212" s="1">
         <v>44723</v>
@@ -4478,7 +4478,7 @@
         <v>3</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C213" s="1">
         <v>44724</v>
@@ -4495,7 +4495,7 @@
         <v>3</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C214" s="1">
         <v>44725</v>
@@ -4512,7 +4512,7 @@
         <v>3</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C215" s="1">
         <v>44726</v>
@@ -4529,7 +4529,7 @@
         <v>3</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C216" s="1">
         <v>44727</v>
@@ -4546,7 +4546,7 @@
         <v>3</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C217" s="1">
         <v>44728</v>
@@ -4563,7 +4563,7 @@
         <v>3</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C218" s="1">
         <v>44729</v>
@@ -4580,7 +4580,7 @@
         <v>3</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C219" s="1">
         <v>44730</v>
@@ -4597,7 +4597,7 @@
         <v>3</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C220" s="1">
         <v>44731</v>
@@ -4614,7 +4614,7 @@
         <v>3</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C221" s="1">
         <v>44732</v>
@@ -4631,7 +4631,7 @@
         <v>3</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C222" s="1">
         <v>44733</v>
@@ -4648,7 +4648,7 @@
         <v>3</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C223" s="1">
         <v>44734</v>
@@ -4665,7 +4665,7 @@
         <v>3</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C224" s="1">
         <v>44735</v>
@@ -4682,7 +4682,7 @@
         <v>3</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C225" s="1">
         <v>44736</v>
@@ -4699,7 +4699,7 @@
         <v>3</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C226" s="1">
         <v>44737</v>
@@ -4716,7 +4716,7 @@
         <v>3</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C227" s="1">
         <v>44738</v>
@@ -4733,7 +4733,7 @@
         <v>3</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C228" s="1">
         <v>44739</v>
@@ -4750,7 +4750,7 @@
         <v>3</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C229" s="1">
         <v>44740</v>
@@ -4767,7 +4767,7 @@
         <v>3</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C230" s="1">
         <v>44741</v>
@@ -4784,7 +4784,7 @@
         <v>3</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C231" s="1">
         <v>44742</v>
@@ -4801,7 +4801,7 @@
         <v>3</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C232" s="1">
         <v>44743</v>
@@ -4818,7 +4818,7 @@
         <v>3</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C233" s="1">
         <v>44744</v>
@@ -4835,7 +4835,7 @@
         <v>3</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C234" s="1">
         <v>44745</v>
@@ -4852,7 +4852,7 @@
         <v>3</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C235" s="1">
         <v>44746</v>
@@ -4869,7 +4869,7 @@
         <v>3</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C236" s="1">
         <v>44747</v>
@@ -4886,7 +4886,7 @@
         <v>3</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C237" s="1">
         <v>44748</v>
@@ -4903,7 +4903,7 @@
         <v>3</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C238" s="1">
         <v>44749</v>
@@ -4920,7 +4920,7 @@
         <v>3</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C239" s="1">
         <v>44750</v>
@@ -4937,7 +4937,7 @@
         <v>3</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C240" s="1">
         <v>44751</v>
@@ -4954,7 +4954,7 @@
         <v>3</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C241" s="1">
         <v>44752</v>
@@ -4971,7 +4971,7 @@
         <v>3</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C242" s="1">
         <v>44753</v>
@@ -4988,7 +4988,7 @@
         <v>3</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C243" s="1">
         <v>44754</v>
@@ -5005,7 +5005,7 @@
         <v>3</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C244" s="1">
         <v>44755</v>
@@ -5022,7 +5022,7 @@
         <v>3</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C245" s="1">
         <v>44756</v>
@@ -5039,7 +5039,7 @@
         <v>3</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C246" s="1">
         <v>44757</v>
@@ -5056,7 +5056,7 @@
         <v>3</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C247" s="1">
         <v>44758</v>
@@ -5073,7 +5073,7 @@
         <v>3</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C248" s="1">
         <v>44759</v>
@@ -5090,7 +5090,7 @@
         <v>3</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C249" s="1">
         <v>44760</v>
@@ -5107,7 +5107,7 @@
         <v>3</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C250" s="1">
         <v>44761</v>
@@ -5124,7 +5124,7 @@
         <v>3</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C251" s="1">
         <v>44762</v>
@@ -5141,7 +5141,7 @@
         <v>3</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C252" s="1">
         <v>44763</v>
@@ -5158,7 +5158,7 @@
         <v>3</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C253" s="1">
         <v>44764</v>
@@ -5175,7 +5175,7 @@
         <v>3</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C254" s="1">
         <v>44765</v>
@@ -5192,7 +5192,7 @@
         <v>3</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C255" s="1">
         <v>44766</v>
@@ -5209,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C256" s="1">
         <v>44767</v>
@@ -5226,7 +5226,7 @@
         <v>3</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C257" s="1">
         <v>44768</v>
@@ -5243,7 +5243,7 @@
         <v>3</v>
       </c>
       <c r="B258" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C258" s="1">
         <v>44769</v>
@@ -5260,7 +5260,7 @@
         <v>3</v>
       </c>
       <c r="B259" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C259" s="1">
         <v>44770</v>
@@ -5277,7 +5277,7 @@
         <v>3</v>
       </c>
       <c r="B260" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C260" s="1">
         <v>44771</v>
@@ -5294,7 +5294,7 @@
         <v>3</v>
       </c>
       <c r="B261" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C261" s="1">
         <v>44772</v>
@@ -5311,7 +5311,7 @@
         <v>3</v>
       </c>
       <c r="B262" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C262" s="1">
         <v>44773</v>
@@ -5328,7 +5328,7 @@
         <v>3</v>
       </c>
       <c r="B263" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C263" s="1">
         <v>44774</v>
@@ -5345,7 +5345,7 @@
         <v>3</v>
       </c>
       <c r="B264" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C264" s="1">
         <v>44775</v>
@@ -5362,7 +5362,7 @@
         <v>3</v>
       </c>
       <c r="B265" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C265" s="1">
         <v>44776</v>
@@ -5379,7 +5379,7 @@
         <v>3</v>
       </c>
       <c r="B266" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C266" s="1">
         <v>44777</v>
@@ -5396,7 +5396,7 @@
         <v>3</v>
       </c>
       <c r="B267" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C267" s="1">
         <v>44778</v>
@@ -5413,7 +5413,7 @@
         <v>3</v>
       </c>
       <c r="B268" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C268" s="1">
         <v>44779</v>
@@ -5430,7 +5430,7 @@
         <v>3</v>
       </c>
       <c r="B269" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C269" s="1">
         <v>44780</v>
@@ -5447,7 +5447,7 @@
         <v>3</v>
       </c>
       <c r="B270" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C270" s="1">
         <v>44781</v>
@@ -5464,7 +5464,7 @@
         <v>3</v>
       </c>
       <c r="B271" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C271" s="1">
         <v>44782</v>
@@ -5481,7 +5481,7 @@
         <v>3</v>
       </c>
       <c r="B272" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C272" s="1">
         <v>44783</v>
@@ -5498,7 +5498,7 @@
         <v>3</v>
       </c>
       <c r="B273" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C273" s="1">
         <v>44784</v>
@@ -5515,7 +5515,7 @@
         <v>3</v>
       </c>
       <c r="B274" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C274" s="1">
         <v>44785</v>
@@ -5532,7 +5532,7 @@
         <v>3</v>
       </c>
       <c r="B275" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C275" s="1">
         <v>44786</v>
@@ -5549,7 +5549,7 @@
         <v>3</v>
       </c>
       <c r="B276" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C276" s="1">
         <v>44787</v>
@@ -5566,7 +5566,7 @@
         <v>3</v>
       </c>
       <c r="B277" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C277" s="1">
         <v>44788</v>
@@ -5583,7 +5583,7 @@
         <v>3</v>
       </c>
       <c r="B278" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C278" s="1">
         <v>44789</v>
@@ -5600,7 +5600,7 @@
         <v>3</v>
       </c>
       <c r="B279" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C279" s="1">
         <v>44790</v>
@@ -5617,7 +5617,7 @@
         <v>3</v>
       </c>
       <c r="B280" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C280" s="1">
         <v>44791</v>
@@ -5634,7 +5634,7 @@
         <v>3</v>
       </c>
       <c r="B281" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C281" s="1">
         <v>44792</v>
@@ -5651,7 +5651,7 @@
         <v>3</v>
       </c>
       <c r="B282" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C282" s="1">
         <v>44793</v>
@@ -5668,7 +5668,7 @@
         <v>3</v>
       </c>
       <c r="B283" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C283" s="1">
         <v>44794</v>
@@ -5685,7 +5685,7 @@
         <v>3</v>
       </c>
       <c r="B284" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C284" s="1">
         <v>44795</v>
@@ -5702,7 +5702,7 @@
         <v>3</v>
       </c>
       <c r="B285" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C285" s="1">
         <v>44796</v>
@@ -5719,7 +5719,7 @@
         <v>3</v>
       </c>
       <c r="B286" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C286" s="1">
         <v>44797</v>
@@ -5736,7 +5736,7 @@
         <v>3</v>
       </c>
       <c r="B287" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C287" s="1">
         <v>44798</v>
@@ -5753,7 +5753,7 @@
         <v>3</v>
       </c>
       <c r="B288" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C288" s="1">
         <v>44799</v>
@@ -5770,7 +5770,7 @@
         <v>3</v>
       </c>
       <c r="B289" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C289" s="1">
         <v>44800</v>
@@ -5787,7 +5787,7 @@
         <v>3</v>
       </c>
       <c r="B290" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C290" s="1">
         <v>44801</v>
@@ -5804,7 +5804,7 @@
         <v>3</v>
       </c>
       <c r="B291" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C291" s="1">
         <v>44802</v>
@@ -5821,7 +5821,7 @@
         <v>3</v>
       </c>
       <c r="B292" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C292" s="1">
         <v>44803</v>
@@ -5838,7 +5838,7 @@
         <v>3</v>
       </c>
       <c r="B293" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C293" s="1">
         <v>44804</v>
@@ -5855,7 +5855,7 @@
         <v>3</v>
       </c>
       <c r="B294" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C294" s="1">
         <v>44805</v>
@@ -5872,7 +5872,7 @@
         <v>3</v>
       </c>
       <c r="B295" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C295" s="1">
         <v>44806</v>
@@ -5889,7 +5889,7 @@
         <v>3</v>
       </c>
       <c r="B296" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C296" s="1">
         <v>44807</v>
@@ -5906,7 +5906,7 @@
         <v>3</v>
       </c>
       <c r="B297" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C297" s="1">
         <v>44808</v>
@@ -5923,7 +5923,7 @@
         <v>3</v>
       </c>
       <c r="B298" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C298" s="1">
         <v>44809</v>
@@ -5940,7 +5940,7 @@
         <v>3</v>
       </c>
       <c r="B299" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C299" s="1">
         <v>44810</v>
@@ -5957,7 +5957,7 @@
         <v>3</v>
       </c>
       <c r="B300" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C300" s="1">
         <v>44811</v>
@@ -5974,7 +5974,7 @@
         <v>3</v>
       </c>
       <c r="B301" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C301" s="1">
         <v>44812</v>
